--- a/data/expected_death_inlaf_2020.xlsx
+++ b/data/expected_death_inlaf_2020.xlsx
@@ -824,13 +824,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>41.8160545845232</v>
+        <v>41.6099369957037</v>
       </c>
       <c r="D2" t="n">
-        <v>35.647752146185</v>
+        <v>35.242409546025</v>
       </c>
       <c r="E2" t="n">
-        <v>49.3518817320224</v>
+        <v>49.7241638091268</v>
       </c>
       <c r="F2" t="n">
         <v>2018</v>
@@ -862,13 +862,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>84.5085394181136</v>
+        <v>84.4076128399252</v>
       </c>
       <c r="D3" t="n">
-        <v>74.6742366041979</v>
+        <v>75.0192307463372</v>
       </c>
       <c r="E3" t="n">
-        <v>94.9959638701685</v>
+        <v>96.1279568836621</v>
       </c>
       <c r="F3" t="n">
         <v>2018</v>
@@ -900,13 +900,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>93.1730018465418</v>
+        <v>93.499312105605</v>
       </c>
       <c r="D4" t="n">
-        <v>82.8713611431018</v>
+        <v>82.7297762526936</v>
       </c>
       <c r="E4" t="n">
-        <v>104.716093753294</v>
+        <v>104.078780963107</v>
       </c>
       <c r="F4" t="n">
         <v>2018</v>
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1786.23449872525</v>
+        <v>1786.79918046451</v>
       </c>
       <c r="D5" t="n">
-        <v>1702.88122297516</v>
+        <v>1703.7162201425</v>
       </c>
       <c r="E5" t="n">
-        <v>1880.6200057495</v>
+        <v>1881.72396973555</v>
       </c>
       <c r="F5" t="n">
         <v>2018</v>
@@ -976,13 +976,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>233.820585273852</v>
+        <v>234.958551261642</v>
       </c>
       <c r="D6" t="n">
-        <v>214.871665997472</v>
+        <v>215.926138694501</v>
       </c>
       <c r="E6" t="n">
-        <v>254.54479994686</v>
+        <v>255.664796466911</v>
       </c>
       <c r="F6" t="n">
         <v>2018</v>
@@ -1014,13 +1014,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1177.01450388465</v>
+        <v>1179.72400419428</v>
       </c>
       <c r="D7" t="n">
-        <v>1115.58519129737</v>
+        <v>1119.11803769997</v>
       </c>
       <c r="E7" t="n">
-        <v>1247.12140304108</v>
+        <v>1244.54923676526</v>
       </c>
       <c r="F7" t="n">
         <v>2018</v>
@@ -1052,13 +1052,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>476.850610572443</v>
+        <v>476.888595914359</v>
       </c>
       <c r="D8" t="n">
-        <v>446.395646948931</v>
+        <v>447.906917963377</v>
       </c>
       <c r="E8" t="n">
-        <v>508.658076168518</v>
+        <v>508.421737901639</v>
       </c>
       <c r="F8" t="n">
         <v>2018</v>
@@ -1090,13 +1090,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>73.5280071093912</v>
+        <v>73.5203334478025</v>
       </c>
       <c r="D9" t="n">
-        <v>65.3824416189809</v>
+        <v>65.3818094626796</v>
       </c>
       <c r="E9" t="n">
-        <v>82.866612620678</v>
+        <v>82.7410051988886</v>
       </c>
       <c r="F9" t="n">
         <v>2018</v>
@@ -1128,13 +1128,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>132.75245107641</v>
+        <v>132.755179213645</v>
       </c>
       <c r="D10" t="n">
-        <v>120.737565344648</v>
+        <v>120.114013831271</v>
       </c>
       <c r="E10" t="n">
-        <v>146.896116071076</v>
+        <v>147.543530469037</v>
       </c>
       <c r="F10" t="n">
         <v>2018</v>
@@ -1166,13 +1166,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>103.632349619338</v>
+        <v>103.945351055386</v>
       </c>
       <c r="D11" t="n">
-        <v>93.0053061606484</v>
+        <v>93.0167095856683</v>
       </c>
       <c r="E11" t="n">
-        <v>115.688659838956</v>
+        <v>117.004288648093</v>
       </c>
       <c r="F11" t="n">
         <v>2018</v>
@@ -1204,13 +1204,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>189.717512110261</v>
+        <v>190.355876057424</v>
       </c>
       <c r="D12" t="n">
-        <v>173.62516629321</v>
+        <v>173.947630608587</v>
       </c>
       <c r="E12" t="n">
-        <v>207.486823564678</v>
+        <v>208.42590864548</v>
       </c>
       <c r="F12" t="n">
         <v>2018</v>
@@ -1242,13 +1242,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>249.284794752738</v>
+        <v>249.421180000698</v>
       </c>
       <c r="D13" t="n">
-        <v>230.183376782032</v>
+        <v>230.795427018367</v>
       </c>
       <c r="E13" t="n">
-        <v>269.129633832356</v>
+        <v>270.892062132843</v>
       </c>
       <c r="F13" t="n">
         <v>2018</v>
@@ -1280,13 +1280,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>89.3879658846842</v>
+        <v>89.6543504766752</v>
       </c>
       <c r="D14" t="n">
-        <v>79.6420364046288</v>
+        <v>79.5880015687241</v>
       </c>
       <c r="E14" t="n">
-        <v>100.935298776945</v>
+        <v>100.897787779992</v>
       </c>
       <c r="F14" t="n">
         <v>2018</v>
@@ -1318,13 +1318,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>30.1039691449877</v>
+        <v>30.103298982145</v>
       </c>
       <c r="D15" t="n">
-        <v>25.4148615110903</v>
+        <v>25.4236096361538</v>
       </c>
       <c r="E15" t="n">
-        <v>35.4026457902233</v>
+        <v>35.2738044789918</v>
       </c>
       <c r="F15" t="n">
         <v>2018</v>
@@ -1356,13 +1356,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>162.849014004771</v>
+        <v>162.517538652407</v>
       </c>
       <c r="D16" t="n">
-        <v>148.962950649779</v>
+        <v>147.787782695096</v>
       </c>
       <c r="E16" t="n">
-        <v>180.165442500063</v>
+        <v>178.586515418123</v>
       </c>
       <c r="F16" t="n">
         <v>2018</v>
@@ -1394,13 +1394,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>188.623741185054</v>
+        <v>188.84249801637</v>
       </c>
       <c r="D17" t="n">
-        <v>172.46505299921</v>
+        <v>172.641564136447</v>
       </c>
       <c r="E17" t="n">
-        <v>204.486415223839</v>
+        <v>205.243081292066</v>
       </c>
       <c r="F17" t="n">
         <v>2018</v>
@@ -1432,13 +1432,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>189.013763998454</v>
+        <v>188.950667261361</v>
       </c>
       <c r="D18" t="n">
-        <v>173.233791985631</v>
+        <v>172.856197078564</v>
       </c>
       <c r="E18" t="n">
-        <v>206.629145924317</v>
+        <v>208.925471390708</v>
       </c>
       <c r="F18" t="n">
         <v>2018</v>
@@ -1470,13 +1470,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>38.3880473967773</v>
+        <v>38.4021903864249</v>
       </c>
       <c r="D19" t="n">
-        <v>32.6265677790654</v>
+        <v>32.7115985460355</v>
       </c>
       <c r="E19" t="n">
-        <v>44.8852989037133</v>
+        <v>44.3703307639026</v>
       </c>
       <c r="F19" t="n">
         <v>2018</v>
@@ -1508,13 +1508,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>275.470655552291</v>
+        <v>276.740957526039</v>
       </c>
       <c r="D20" t="n">
-        <v>254.867604388285</v>
+        <v>254.876991984836</v>
       </c>
       <c r="E20" t="n">
-        <v>296.998187890151</v>
+        <v>297.188901527919</v>
       </c>
       <c r="F20" t="n">
         <v>2018</v>
@@ -1546,13 +1546,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>130.770912051505</v>
+        <v>131.644889374291</v>
       </c>
       <c r="D21" t="n">
-        <v>118.271259999476</v>
+        <v>119.181485861908</v>
       </c>
       <c r="E21" t="n">
-        <v>145.328114506997</v>
+        <v>145.334319364924</v>
       </c>
       <c r="F21" t="n">
         <v>2018</v>
@@ -1584,13 +1584,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>137.330188617695</v>
+        <v>137.72346880175</v>
       </c>
       <c r="D22" t="n">
-        <v>124.930459739151</v>
+        <v>124.824781825376</v>
       </c>
       <c r="E22" t="n">
-        <v>152.255685521354</v>
+        <v>152.136175898466</v>
       </c>
       <c r="F22" t="n">
         <v>2018</v>
@@ -1622,13 +1622,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>412.536403160638</v>
+        <v>413.778139075494</v>
       </c>
       <c r="D23" t="n">
-        <v>384.580479076443</v>
+        <v>384.691907094595</v>
       </c>
       <c r="E23" t="n">
-        <v>443.414971193426</v>
+        <v>445.414000100869</v>
       </c>
       <c r="F23" t="n">
         <v>2018</v>
@@ -1660,13 +1660,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>268.952997300649</v>
+        <v>268.787892816179</v>
       </c>
       <c r="D24" t="n">
-        <v>248.922137994403</v>
+        <v>246.721638977495</v>
       </c>
       <c r="E24" t="n">
-        <v>294.269268367458</v>
+        <v>291.935500610891</v>
       </c>
       <c r="F24" t="n">
         <v>2018</v>
@@ -1698,13 +1698,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>289.307994044349</v>
+        <v>289.462721106215</v>
       </c>
       <c r="D25" t="n">
-        <v>268.625824541033</v>
+        <v>268.557177516025</v>
       </c>
       <c r="E25" t="n">
-        <v>314.163384509901</v>
+        <v>314.245018541793</v>
       </c>
       <c r="F25" t="n">
         <v>2018</v>
@@ -1736,13 +1736,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>244.91174317063</v>
+        <v>245.881144513758</v>
       </c>
       <c r="D26" t="n">
-        <v>225.841535378034</v>
+        <v>225.89912467912</v>
       </c>
       <c r="E26" t="n">
-        <v>264.521391712822</v>
+        <v>268.168893601405</v>
       </c>
       <c r="F26" t="n">
         <v>2018</v>
@@ -1774,13 +1774,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>166.497765631615</v>
+        <v>166.515946540446</v>
       </c>
       <c r="D27" t="n">
-        <v>150.991104955468</v>
+        <v>150.81625030442</v>
       </c>
       <c r="E27" t="n">
-        <v>183.051377690653</v>
+        <v>181.722693389266</v>
       </c>
       <c r="F27" t="n">
         <v>2018</v>
@@ -1812,13 +1812,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>46.6396929251184</v>
+        <v>46.617340192185</v>
       </c>
       <c r="D28" t="n">
-        <v>40.6710675638604</v>
+        <v>40.1962307599684</v>
       </c>
       <c r="E28" t="n">
-        <v>53.8917948532628</v>
+        <v>53.7123151147629</v>
       </c>
       <c r="F28" t="n">
         <v>2018</v>
@@ -1850,13 +1850,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>108.978405323816</v>
+        <v>108.983397576086</v>
       </c>
       <c r="D29" t="n">
-        <v>96.6412348056325</v>
+        <v>97.8608333293517</v>
       </c>
       <c r="E29" t="n">
-        <v>121.131385813513</v>
+        <v>120.3448786172</v>
       </c>
       <c r="F29" t="n">
         <v>2018</v>
@@ -1888,13 +1888,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>55.841513326434</v>
+        <v>55.2029886249981</v>
       </c>
       <c r="D30" t="n">
-        <v>47.2968983346605</v>
+        <v>47.8686305365285</v>
       </c>
       <c r="E30" t="n">
-        <v>63.3617022307324</v>
+        <v>63.8954850391998</v>
       </c>
       <c r="F30" t="n">
         <v>2018</v>
@@ -1926,13 +1926,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>553.620815787814</v>
+        <v>554.756731072027</v>
       </c>
       <c r="D31" t="n">
-        <v>520.030236975249</v>
+        <v>520.200326595874</v>
       </c>
       <c r="E31" t="n">
-        <v>590.37938529277</v>
+        <v>590.135447518946</v>
       </c>
       <c r="F31" t="n">
         <v>2018</v>
@@ -1964,13 +1964,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>223.560122635129</v>
+        <v>224.701470377153</v>
       </c>
       <c r="D32" t="n">
-        <v>204.114656181762</v>
+        <v>207.766081497972</v>
       </c>
       <c r="E32" t="n">
-        <v>245.673604231919</v>
+        <v>243.534222535106</v>
       </c>
       <c r="F32" t="n">
         <v>2018</v>
@@ -2002,13 +2002,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>123.103570177176</v>
+        <v>122.883712596458</v>
       </c>
       <c r="D33" t="n">
-        <v>110.085550918379</v>
+        <v>109.409479188485</v>
       </c>
       <c r="E33" t="n">
-        <v>136.527289555819</v>
+        <v>137.032968773958</v>
       </c>
       <c r="F33" t="n">
         <v>2018</v>
@@ -2040,13 +2040,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>307.343078995574</v>
+        <v>308.042375762782</v>
       </c>
       <c r="D34" t="n">
-        <v>286.055300722431</v>
+        <v>286.135253807265</v>
       </c>
       <c r="E34" t="n">
-        <v>333.270832456154</v>
+        <v>333.084370126808</v>
       </c>
       <c r="F34" t="n">
         <v>2018</v>
@@ -2078,13 +2078,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>61.597101988961</v>
+        <v>61.4609442263444</v>
       </c>
       <c r="D35" t="n">
-        <v>53.1638629013502</v>
+        <v>53.2442307571022</v>
       </c>
       <c r="E35" t="n">
-        <v>70.7203919500763</v>
+        <v>69.9884936887605</v>
       </c>
       <c r="F35" t="n">
         <v>2018</v>
@@ -2116,13 +2116,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>279.146187297213</v>
+        <v>278.697057566162</v>
       </c>
       <c r="D36" t="n">
-        <v>258.124734111271</v>
+        <v>258.806054166062</v>
       </c>
       <c r="E36" t="n">
-        <v>301.810231754339</v>
+        <v>301.567360855398</v>
       </c>
       <c r="F36" t="n">
         <v>2018</v>
@@ -2154,13 +2154,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>65.0172088392087</v>
+        <v>64.5937805601506</v>
       </c>
       <c r="D37" t="n">
-        <v>56.7747159184122</v>
+        <v>56.2706015105743</v>
       </c>
       <c r="E37" t="n">
-        <v>73.6698195926921</v>
+        <v>73.7720571231422</v>
       </c>
       <c r="F37" t="n">
         <v>2018</v>
@@ -2192,13 +2192,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>493.286029793949</v>
+        <v>494.016461077071</v>
       </c>
       <c r="D38" t="n">
-        <v>460.235491166511</v>
+        <v>460.38432515573</v>
       </c>
       <c r="E38" t="n">
-        <v>526.049371955667</v>
+        <v>527.498888595652</v>
       </c>
       <c r="F38" t="n">
         <v>2018</v>
@@ -2230,13 +2230,13 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>231.93884203189</v>
+        <v>232.325549631249</v>
       </c>
       <c r="D39" t="n">
-        <v>212.388126123597</v>
+        <v>214.343674186114</v>
       </c>
       <c r="E39" t="n">
-        <v>253.959825100287</v>
+        <v>254.407147905161</v>
       </c>
       <c r="F39" t="n">
         <v>2018</v>
@@ -2268,13 +2268,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>330.561483171427</v>
+        <v>330.514490321887</v>
       </c>
       <c r="D40" t="n">
-        <v>308.277872057513</v>
+        <v>307.452395772871</v>
       </c>
       <c r="E40" t="n">
-        <v>356.494037343866</v>
+        <v>355.271113349263</v>
       </c>
       <c r="F40" t="n">
         <v>2018</v>
@@ -2306,13 +2306,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>334.741851258523</v>
+        <v>334.659389985073</v>
       </c>
       <c r="D41" t="n">
-        <v>310.646953476594</v>
+        <v>311.498649794386</v>
       </c>
       <c r="E41" t="n">
-        <v>359.420380337313</v>
+        <v>360.854880722641</v>
       </c>
       <c r="F41" t="n">
         <v>2018</v>
@@ -2344,13 +2344,13 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>45.9198101171875</v>
+        <v>46.0150103858137</v>
       </c>
       <c r="D42" t="n">
-        <v>39.1539356997038</v>
+        <v>39.3112116252681</v>
       </c>
       <c r="E42" t="n">
-        <v>53.0899605595811</v>
+        <v>53.8851822516561</v>
       </c>
       <c r="F42" t="n">
         <v>2018</v>
@@ -2382,13 +2382,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>20.8489426614261</v>
+        <v>20.8853605867039</v>
       </c>
       <c r="D43" t="n">
-        <v>16.9749607761599</v>
+        <v>17.0954641653385</v>
       </c>
       <c r="E43" t="n">
-        <v>25.3112456772373</v>
+        <v>25.2755058887639</v>
       </c>
       <c r="F43" t="n">
         <v>2018</v>
@@ -2420,13 +2420,13 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>217.602773937213</v>
+        <v>218.482378366851</v>
       </c>
       <c r="D44" t="n">
-        <v>200.180215445309</v>
+        <v>200.872078481189</v>
       </c>
       <c r="E44" t="n">
-        <v>236.631561780642</v>
+        <v>238.201968011957</v>
       </c>
       <c r="F44" t="n">
         <v>2018</v>
@@ -2458,13 +2458,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>53.563684869484</v>
+        <v>53.8145219946728</v>
       </c>
       <c r="D45" t="n">
-        <v>46.6652837580107</v>
+        <v>46.1267465639615</v>
       </c>
       <c r="E45" t="n">
-        <v>62.4562176434937</v>
+        <v>62.5255248289798</v>
       </c>
       <c r="F45" t="n">
         <v>2018</v>
@@ -2496,13 +2496,13 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>149.478372516315</v>
+        <v>149.887844240418</v>
       </c>
       <c r="D46" t="n">
-        <v>135.201880141706</v>
+        <v>136.338560592024</v>
       </c>
       <c r="E46" t="n">
-        <v>165.468706053563</v>
+        <v>165.20109758522</v>
       </c>
       <c r="F46" t="n">
         <v>2018</v>
@@ -2534,13 +2534,13 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>103.083121933914</v>
+        <v>102.881909848643</v>
       </c>
       <c r="D47" t="n">
-        <v>92.2200618096785</v>
+        <v>91.3242165381445</v>
       </c>
       <c r="E47" t="n">
-        <v>115.490193295791</v>
+        <v>114.507127682304</v>
       </c>
       <c r="F47" t="n">
         <v>2018</v>
@@ -2572,13 +2572,13 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>248.875171902466</v>
+        <v>248.893019163079</v>
       </c>
       <c r="D48" t="n">
-        <v>229.94398270615</v>
+        <v>228.767133587788</v>
       </c>
       <c r="E48" t="n">
-        <v>270.834601073585</v>
+        <v>270.246348884849</v>
       </c>
       <c r="F48" t="n">
         <v>2018</v>
@@ -2610,13 +2610,13 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>527.924860032766</v>
+        <v>527.686199968855</v>
       </c>
       <c r="D49" t="n">
-        <v>494.421580785057</v>
+        <v>495.704828036677</v>
       </c>
       <c r="E49" t="n">
-        <v>562.44781230839</v>
+        <v>559.844307232182</v>
       </c>
       <c r="F49" t="n">
         <v>2018</v>
@@ -2648,13 +2648,13 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>84.3730332421302</v>
+        <v>84.7620059196482</v>
       </c>
       <c r="D50" t="n">
-        <v>74.8756413734664</v>
+        <v>74.8448145198949</v>
       </c>
       <c r="E50" t="n">
-        <v>95.3466822067104</v>
+        <v>94.4284928215239</v>
       </c>
       <c r="F50" t="n">
         <v>2018</v>
@@ -2686,13 +2686,13 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>203.212590530322</v>
+        <v>203.882982419712</v>
       </c>
       <c r="D51" t="n">
-        <v>186.723540609485</v>
+        <v>186.48644939496</v>
       </c>
       <c r="E51" t="n">
-        <v>222.919567138995</v>
+        <v>221.956535207044</v>
       </c>
       <c r="F51" t="n">
         <v>2018</v>
@@ -2724,13 +2724,13 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>103.68795480043</v>
+        <v>103.670323164904</v>
       </c>
       <c r="D52" t="n">
-        <v>92.1362421114388</v>
+        <v>92.3031499804398</v>
       </c>
       <c r="E52" t="n">
-        <v>116.519167284206</v>
+        <v>115.751337637257</v>
       </c>
       <c r="F52" t="n">
         <v>2018</v>
@@ -2762,13 +2762,13 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>30.1144040131141</v>
+        <v>30.2989666930479</v>
       </c>
       <c r="D53" t="n">
-        <v>24.8237235235301</v>
+        <v>25.1935783667846</v>
       </c>
       <c r="E53" t="n">
-        <v>36.3434372503433</v>
+        <v>36.5141620627315</v>
       </c>
       <c r="F53" t="n">
         <v>2018</v>
@@ -2800,13 +2800,13 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>29.9941415922447</v>
+        <v>30.0645118372337</v>
       </c>
       <c r="D54" t="n">
-        <v>24.0594394721286</v>
+        <v>24.3891939022113</v>
       </c>
       <c r="E54" t="n">
-        <v>36.5911020408488</v>
+        <v>36.6113465807088</v>
       </c>
       <c r="F54" t="n">
         <v>2018</v>
@@ -2838,13 +2838,13 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>200.402410769976</v>
+        <v>200.240786790111</v>
       </c>
       <c r="D55" t="n">
-        <v>182.993759190857</v>
+        <v>183.182380538858</v>
       </c>
       <c r="E55" t="n">
-        <v>218.129211124813</v>
+        <v>218.234414223805</v>
       </c>
       <c r="F55" t="n">
         <v>2018</v>
@@ -2876,13 +2876,13 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>338.179675476198</v>
+        <v>338.172578284401</v>
       </c>
       <c r="D56" t="n">
-        <v>314.307226975204</v>
+        <v>313.66148176526</v>
       </c>
       <c r="E56" t="n">
-        <v>365.314987764194</v>
+        <v>364.058402883152</v>
       </c>
       <c r="F56" t="n">
         <v>2018</v>
@@ -2914,13 +2914,13 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>371.506591079285</v>
+        <v>371.930930207783</v>
       </c>
       <c r="D57" t="n">
-        <v>346.22137304566</v>
+        <v>346.408039580161</v>
       </c>
       <c r="E57" t="n">
-        <v>402.076826052735</v>
+        <v>400.022439306595</v>
       </c>
       <c r="F57" t="n">
         <v>2018</v>
@@ -2952,13 +2952,13 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>463.718290419425</v>
+        <v>463.382101159061</v>
       </c>
       <c r="D58" t="n">
-        <v>433.403998672881</v>
+        <v>431.955169264943</v>
       </c>
       <c r="E58" t="n">
-        <v>492.901234614117</v>
+        <v>495.801123326043</v>
       </c>
       <c r="F58" t="n">
         <v>2018</v>
@@ -2990,13 +2990,13 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>135.822413145628</v>
+        <v>135.977454031041</v>
       </c>
       <c r="D59" t="n">
-        <v>122.546393701824</v>
+        <v>122.529248913608</v>
       </c>
       <c r="E59" t="n">
-        <v>150.414092503935</v>
+        <v>151.413335212788</v>
       </c>
       <c r="F59" t="n">
         <v>2018</v>
@@ -3028,13 +3028,13 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>476.089931262233</v>
+        <v>476.232069604459</v>
       </c>
       <c r="D60" t="n">
-        <v>446.235825501309</v>
+        <v>445.550501911222</v>
       </c>
       <c r="E60" t="n">
-        <v>512.029167071184</v>
+        <v>510.310389877807</v>
       </c>
       <c r="F60" t="n">
         <v>2018</v>
@@ -3066,13 +3066,13 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>200.178206426568</v>
+        <v>200.164910724518</v>
       </c>
       <c r="D61" t="n">
-        <v>182.291724205051</v>
+        <v>183.557978625879</v>
       </c>
       <c r="E61" t="n">
-        <v>218.148691019576</v>
+        <v>217.433130671973</v>
       </c>
       <c r="F61" t="n">
         <v>2018</v>
@@ -3104,13 +3104,13 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>120.748281824784</v>
+        <v>121.034211268095</v>
       </c>
       <c r="D62" t="n">
-        <v>108.940038118787</v>
+        <v>109.188264573765</v>
       </c>
       <c r="E62" t="n">
-        <v>134.00164345682</v>
+        <v>134.593318638441</v>
       </c>
       <c r="F62" t="n">
         <v>2018</v>
@@ -3142,13 +3142,13 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>658.578729055726</v>
+        <v>658.311386482963</v>
       </c>
       <c r="D63" t="n">
-        <v>619.723064822834</v>
+        <v>619.690778369358</v>
       </c>
       <c r="E63" t="n">
-        <v>695.560557222174</v>
+        <v>700.875661860856</v>
       </c>
       <c r="F63" t="n">
         <v>2018</v>
@@ -3180,13 +3180,13 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>45.0532811425526</v>
+        <v>45.0999167538974</v>
       </c>
       <c r="D64" t="n">
-        <v>38.597723892492</v>
+        <v>38.6317057530489</v>
       </c>
       <c r="E64" t="n">
-        <v>51.810003587873</v>
+        <v>53.0418202269551</v>
       </c>
       <c r="F64" t="n">
         <v>2018</v>
@@ -3218,13 +3218,13 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>162.333664273579</v>
+        <v>163.014998975738</v>
       </c>
       <c r="D65" t="n">
-        <v>147.528918873687</v>
+        <v>148.254422016031</v>
       </c>
       <c r="E65" t="n">
-        <v>179.391688213609</v>
+        <v>180.816565916534</v>
       </c>
       <c r="F65" t="n">
         <v>2018</v>
@@ -3256,13 +3256,13 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>157.698215689523</v>
+        <v>157.600658549475</v>
       </c>
       <c r="D66" t="n">
-        <v>143.658915459319</v>
+        <v>143.903274770405</v>
       </c>
       <c r="E66" t="n">
-        <v>172.590641963845</v>
+        <v>174.039629187853</v>
       </c>
       <c r="F66" t="n">
         <v>2018</v>
@@ -3294,13 +3294,13 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>62.9361854504538</v>
+        <v>62.5517834604254</v>
       </c>
       <c r="D67" t="n">
-        <v>55.1686842013242</v>
+        <v>54.6069077035948</v>
       </c>
       <c r="E67" t="n">
-        <v>71.947964410381</v>
+        <v>72.4043932089195</v>
       </c>
       <c r="F67" t="n">
         <v>2018</v>
@@ -3332,13 +3332,13 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>98.5245549341506</v>
+        <v>98.6305011779939</v>
       </c>
       <c r="D68" t="n">
-        <v>88.1097306744732</v>
+        <v>88.7898993228551</v>
       </c>
       <c r="E68" t="n">
-        <v>109.706209143654</v>
+        <v>110.790118764018</v>
       </c>
       <c r="F68" t="n">
         <v>2018</v>
@@ -3370,13 +3370,13 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>112.647194158219</v>
+        <v>112.866187296735</v>
       </c>
       <c r="D69" t="n">
-        <v>101.452341774021</v>
+        <v>101.331366230128</v>
       </c>
       <c r="E69" t="n">
-        <v>125.590311074525</v>
+        <v>125.826908916443</v>
       </c>
       <c r="F69" t="n">
         <v>2018</v>
@@ -3408,13 +3408,13 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>448.063175093178</v>
+        <v>448.185710738777</v>
       </c>
       <c r="D70" t="n">
-        <v>420.661214691838</v>
+        <v>419.662792578589</v>
       </c>
       <c r="E70" t="n">
-        <v>483.150782340786</v>
+        <v>478.602298932507</v>
       </c>
       <c r="F70" t="n">
         <v>2018</v>
@@ -3446,13 +3446,13 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>41.4480534935296</v>
+        <v>41.3523295877159</v>
       </c>
       <c r="D71" t="n">
-        <v>35.2612742545918</v>
+        <v>35.109374576551</v>
       </c>
       <c r="E71" t="n">
-        <v>48.830603818645</v>
+        <v>48.4568804091747</v>
       </c>
       <c r="F71" t="n">
         <v>2018</v>
@@ -3484,13 +3484,13 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>74.3263050906477</v>
+        <v>74.7557624286428</v>
       </c>
       <c r="D72" t="n">
-        <v>65.6945615408723</v>
+        <v>65.7672926876824</v>
       </c>
       <c r="E72" t="n">
-        <v>84.4027856598483</v>
+        <v>85.5337630075814</v>
       </c>
       <c r="F72" t="n">
         <v>2018</v>
@@ -3522,13 +3522,13 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>147.750033257032</v>
+        <v>148.244321165702</v>
       </c>
       <c r="D73" t="n">
-        <v>133.194260406596</v>
+        <v>132.90153754601</v>
       </c>
       <c r="E73" t="n">
-        <v>163.488249731048</v>
+        <v>164.565454325271</v>
       </c>
       <c r="F73" t="n">
         <v>2018</v>
@@ -3560,13 +3560,13 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>378.177722385509</v>
+        <v>379.312428132362</v>
       </c>
       <c r="D74" t="n">
-        <v>353.486974366434</v>
+        <v>354.014323163039</v>
       </c>
       <c r="E74" t="n">
-        <v>405.389166616864</v>
+        <v>406.235857532911</v>
       </c>
       <c r="F74" t="n">
         <v>2018</v>
@@ -3598,13 +3598,13 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>47.5406869570609</v>
+        <v>47.7655275508935</v>
       </c>
       <c r="D75" t="n">
-        <v>41.3360900906419</v>
+        <v>41.2241165298492</v>
       </c>
       <c r="E75" t="n">
-        <v>55.5101862044141</v>
+        <v>54.7882937930777</v>
       </c>
       <c r="F75" t="n">
         <v>2018</v>
@@ -3636,13 +3636,13 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>44.0048071808635</v>
+        <v>44.0127053086237</v>
       </c>
       <c r="D76" t="n">
-        <v>37.4008345364382</v>
+        <v>37.1698168015517</v>
       </c>
       <c r="E76" t="n">
-        <v>52.0507983578847</v>
+        <v>52.4356863508514</v>
       </c>
       <c r="F76" t="n">
         <v>2018</v>
@@ -3674,13 +3674,13 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>359.867654767132</v>
+        <v>360.429485685685</v>
       </c>
       <c r="D77" t="n">
-        <v>333.612730958281</v>
+        <v>334.830657993415</v>
       </c>
       <c r="E77" t="n">
-        <v>386.786611899173</v>
+        <v>386.910979295428</v>
       </c>
       <c r="F77" t="n">
         <v>2018</v>
@@ -3712,13 +3712,13 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>117.817777193218</v>
+        <v>118.240568820088</v>
       </c>
       <c r="D78" t="n">
-        <v>106.460068804629</v>
+        <v>106.729556822975</v>
       </c>
       <c r="E78" t="n">
-        <v>130.560913837802</v>
+        <v>132.203884968988</v>
       </c>
       <c r="F78" t="n">
         <v>2018</v>
@@ -3750,13 +3750,13 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>253.995295766559</v>
+        <v>254.370360318386</v>
       </c>
       <c r="D79" t="n">
-        <v>234.074453182098</v>
+        <v>234.901711340124</v>
       </c>
       <c r="E79" t="n">
-        <v>275.911384427559</v>
+        <v>275.627021257089</v>
       </c>
       <c r="F79" t="n">
         <v>2018</v>
@@ -3788,13 +3788,13 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>162.701057674426</v>
+        <v>162.69195456884</v>
       </c>
       <c r="D80" t="n">
-        <v>146.939812623621</v>
+        <v>148.203282988383</v>
       </c>
       <c r="E80" t="n">
-        <v>179.146527511688</v>
+        <v>178.438108600519</v>
       </c>
       <c r="F80" t="n">
         <v>2018</v>
@@ -3826,13 +3826,13 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>199.096806163071</v>
+        <v>199.478634899224</v>
       </c>
       <c r="D81" t="n">
-        <v>182.326716109313</v>
+        <v>181.684226401319</v>
       </c>
       <c r="E81" t="n">
-        <v>217.844815278829</v>
+        <v>217.622838967697</v>
       </c>
       <c r="F81" t="n">
         <v>2018</v>
@@ -3864,13 +3864,13 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>216.934153060758</v>
+        <v>216.727391943433</v>
       </c>
       <c r="D82" t="n">
-        <v>199.536760802602</v>
+        <v>199.35860142599</v>
       </c>
       <c r="E82" t="n">
-        <v>237.20579670143</v>
+        <v>236.536503638597</v>
       </c>
       <c r="F82" t="n">
         <v>2018</v>
@@ -3902,13 +3902,13 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>842.837709781356</v>
+        <v>844.157236573054</v>
       </c>
       <c r="D83" t="n">
-        <v>794.919716955754</v>
+        <v>795.674449468481</v>
       </c>
       <c r="E83" t="n">
-        <v>894.716495451912</v>
+        <v>897.022828385528</v>
       </c>
       <c r="F83" t="n">
         <v>2018</v>
@@ -3940,13 +3940,13 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>108.250452131388</v>
+        <v>108.497361565508</v>
       </c>
       <c r="D84" t="n">
-        <v>96.5514087483272</v>
+        <v>98.2636153568973</v>
       </c>
       <c r="E84" t="n">
-        <v>121.650137118989</v>
+        <v>120.019463430282</v>
       </c>
       <c r="F84" t="n">
         <v>2018</v>
@@ -3978,13 +3978,13 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>161.072881864265</v>
+        <v>162.28840474346</v>
       </c>
       <c r="D85" t="n">
-        <v>146.699484693696</v>
+        <v>147.018594177441</v>
       </c>
       <c r="E85" t="n">
-        <v>177.848943868581</v>
+        <v>178.679653925795</v>
       </c>
       <c r="F85" t="n">
         <v>2018</v>
@@ -4016,13 +4016,13 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>149.519744205313</v>
+        <v>149.700460487341</v>
       </c>
       <c r="D86" t="n">
-        <v>135.569459117755</v>
+        <v>135.436765280721</v>
       </c>
       <c r="E86" t="n">
-        <v>163.833194039041</v>
+        <v>165.552202714019</v>
       </c>
       <c r="F86" t="n">
         <v>2018</v>
@@ -4054,13 +4054,13 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>564.776710051924</v>
+        <v>564.251090997295</v>
       </c>
       <c r="D87" t="n">
-        <v>528.800708753856</v>
+        <v>529.34784267293</v>
       </c>
       <c r="E87" t="n">
-        <v>602.623369985225</v>
+        <v>601.303024269676</v>
       </c>
       <c r="F87" t="n">
         <v>2018</v>
@@ -4092,13 +4092,13 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>47.0483869314186</v>
+        <v>46.9607491847873</v>
       </c>
       <c r="D88" t="n">
-        <v>40.5036805791076</v>
+        <v>40.2601692895328</v>
       </c>
       <c r="E88" t="n">
-        <v>54.8719081924642</v>
+        <v>53.8843014119572</v>
       </c>
       <c r="F88" t="n">
         <v>2018</v>
@@ -4130,13 +4130,13 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>136.336605888185</v>
+        <v>136.821415826527</v>
       </c>
       <c r="D89" t="n">
-        <v>124.639017780711</v>
+        <v>122.817840444975</v>
       </c>
       <c r="E89" t="n">
-        <v>151.137272705064</v>
+        <v>149.960852209134</v>
       </c>
       <c r="F89" t="n">
         <v>2018</v>
@@ -4168,13 +4168,13 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>195.038645242167</v>
+        <v>195.53362175912</v>
       </c>
       <c r="D90" t="n">
-        <v>179.474502547314</v>
+        <v>178.584464929025</v>
       </c>
       <c r="E90" t="n">
-        <v>214.85586351754</v>
+        <v>212.73856951306</v>
       </c>
       <c r="F90" t="n">
         <v>2018</v>
@@ -4206,13 +4206,13 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>194.291901989497</v>
+        <v>194.561999002729</v>
       </c>
       <c r="D91" t="n">
-        <v>178.67114849253</v>
+        <v>178.426810806735</v>
       </c>
       <c r="E91" t="n">
-        <v>212.282698153167</v>
+        <v>213.676609389842</v>
       </c>
       <c r="F91" t="n">
         <v>2018</v>
@@ -4244,13 +4244,13 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>658.302999634313</v>
+        <v>660.584249154669</v>
       </c>
       <c r="D92" t="n">
-        <v>618.174375284515</v>
+        <v>621.438500718786</v>
       </c>
       <c r="E92" t="n">
-        <v>704.623448494025</v>
+        <v>701.496977160283</v>
       </c>
       <c r="F92" t="n">
         <v>2018</v>
@@ -4282,13 +4282,13 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>239.884591898871</v>
+        <v>240.331615441201</v>
       </c>
       <c r="D93" t="n">
-        <v>219.28340502135</v>
+        <v>220.616712907453</v>
       </c>
       <c r="E93" t="n">
-        <v>261.840616399775</v>
+        <v>261.462979746952</v>
       </c>
       <c r="F93" t="n">
         <v>2018</v>
@@ -4320,13 +4320,13 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>68.9087750289557</v>
+        <v>68.9152579356798</v>
       </c>
       <c r="D94" t="n">
-        <v>60.7432576503342</v>
+        <v>60.7629222094743</v>
       </c>
       <c r="E94" t="n">
-        <v>78.4182090967625</v>
+        <v>77.8319058077735</v>
       </c>
       <c r="F94" t="n">
         <v>2018</v>
@@ -4358,13 +4358,13 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>10.8697922943042</v>
+        <v>10.6614033468542</v>
       </c>
       <c r="D95" t="n">
-        <v>8.24945105035074</v>
+        <v>8.04549854337372</v>
       </c>
       <c r="E95" t="n">
-        <v>14.1975604561038</v>
+        <v>14.0147977880992</v>
       </c>
       <c r="F95" t="n">
         <v>2018</v>
@@ -4396,13 +4396,13 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>117.625963881136</v>
+        <v>118.089235207753</v>
       </c>
       <c r="D96" t="n">
-        <v>106.20036433076</v>
+        <v>106.364493999518</v>
       </c>
       <c r="E96" t="n">
-        <v>129.578220390413</v>
+        <v>130.898861499936</v>
       </c>
       <c r="F96" t="n">
         <v>2018</v>
@@ -4434,13 +4434,13 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>219.819326952408</v>
+        <v>220.632378382085</v>
       </c>
       <c r="D97" t="n">
-        <v>200.294898936099</v>
+        <v>202.391166981861</v>
       </c>
       <c r="E97" t="n">
-        <v>237.677654927313</v>
+        <v>239.104031138513</v>
       </c>
       <c r="F97" t="n">
         <v>2018</v>
@@ -4472,13 +4472,13 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>234.789531968209</v>
+        <v>235.611621411942</v>
       </c>
       <c r="D98" t="n">
-        <v>218.174158314116</v>
+        <v>215.442712430748</v>
       </c>
       <c r="E98" t="n">
-        <v>254.240053649671</v>
+        <v>255.424819721491</v>
       </c>
       <c r="F98" t="n">
         <v>2018</v>
@@ -4510,13 +4510,13 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>151.546577803191</v>
+        <v>151.114629332397</v>
       </c>
       <c r="D99" t="n">
-        <v>138.018936210939</v>
+        <v>138.491393954873</v>
       </c>
       <c r="E99" t="n">
-        <v>167.785330215161</v>
+        <v>165.965240890974</v>
       </c>
       <c r="F99" t="n">
         <v>2018</v>
@@ -4548,13 +4548,13 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>179.252046745876</v>
+        <v>179.429713770811</v>
       </c>
       <c r="D100" t="n">
-        <v>163.3495464057</v>
+        <v>162.767004618491</v>
       </c>
       <c r="E100" t="n">
-        <v>195.794737178096</v>
+        <v>194.449241960695</v>
       </c>
       <c r="F100" t="n">
         <v>2018</v>
@@ -4586,13 +4586,13 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>63.1008154013861</v>
+        <v>63.2556196751904</v>
       </c>
       <c r="D101" t="n">
-        <v>55.2088990728908</v>
+        <v>55.3367917946739</v>
       </c>
       <c r="E101" t="n">
-        <v>71.3279106044374</v>
+        <v>72.0639783811874</v>
       </c>
       <c r="F101" t="n">
         <v>2018</v>
@@ -4624,13 +4624,13 @@
         <v>101</v>
       </c>
       <c r="C102" t="n">
-        <v>730.890381244584</v>
+        <v>731.6273405098</v>
       </c>
       <c r="D102" t="n">
-        <v>689.259042052428</v>
+        <v>691.294329522533</v>
       </c>
       <c r="E102" t="n">
-        <v>777.16549271002</v>
+        <v>780.446216649043</v>
       </c>
       <c r="F102" t="n">
         <v>2018</v>
@@ -4662,13 +4662,13 @@
         <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>414.105133326705</v>
+        <v>413.821361018195</v>
       </c>
       <c r="D103" t="n">
-        <v>385.400125187421</v>
+        <v>387.622957260945</v>
       </c>
       <c r="E103" t="n">
-        <v>441.818296667169</v>
+        <v>444.379600129654</v>
       </c>
       <c r="F103" t="n">
         <v>2018</v>
@@ -4700,13 +4700,13 @@
         <v>103</v>
       </c>
       <c r="C104" t="n">
-        <v>129.009263937255</v>
+        <v>128.962153224336</v>
       </c>
       <c r="D104" t="n">
-        <v>116.020010018607</v>
+        <v>116.977353202953</v>
       </c>
       <c r="E104" t="n">
-        <v>142.350209498909</v>
+        <v>143.010232604851</v>
       </c>
       <c r="F104" t="n">
         <v>2018</v>
@@ -4738,13 +4738,13 @@
         <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>199.735341552844</v>
+        <v>199.887806941129</v>
       </c>
       <c r="D105" t="n">
-        <v>182.745270788894</v>
+        <v>184.155250885816</v>
       </c>
       <c r="E105" t="n">
-        <v>218.45314972265</v>
+        <v>218.058269011534</v>
       </c>
       <c r="F105" t="n">
         <v>2018</v>
@@ -4776,13 +4776,13 @@
         <v>105</v>
       </c>
       <c r="C106" t="n">
-        <v>1967.26829204864</v>
+        <v>1969.49164324632</v>
       </c>
       <c r="D106" t="n">
-        <v>1875.96092879268</v>
+        <v>1870.58999206385</v>
       </c>
       <c r="E106" t="n">
-        <v>2075.04645034418</v>
+        <v>2070.77805886198</v>
       </c>
       <c r="F106" t="n">
         <v>2018</v>
@@ -4814,13 +4814,13 @@
         <v>106</v>
       </c>
       <c r="C107" t="n">
-        <v>160.213019182433</v>
+        <v>160.055475706939</v>
       </c>
       <c r="D107" t="n">
-        <v>144.078403810675</v>
+        <v>144.672464006994</v>
       </c>
       <c r="E107" t="n">
-        <v>178.033712862082</v>
+        <v>177.175593438268</v>
       </c>
       <c r="F107" t="n">
         <v>2018</v>
@@ -4852,13 +4852,13 @@
         <v>107</v>
       </c>
       <c r="C108" t="n">
-        <v>180.142373355136</v>
+        <v>179.917362180674</v>
       </c>
       <c r="D108" t="n">
-        <v>164.177950359303</v>
+        <v>165.304385264211</v>
       </c>
       <c r="E108" t="n">
-        <v>196.643736429613</v>
+        <v>197.813190853226</v>
       </c>
       <c r="F108" t="n">
         <v>2018</v>
@@ -4890,13 +4890,13 @@
         <v>108</v>
       </c>
       <c r="C109" t="n">
-        <v>67.8287645558894</v>
+        <v>68.0333318652802</v>
       </c>
       <c r="D109" t="n">
-        <v>60.2333574246072</v>
+        <v>59.5623724885375</v>
       </c>
       <c r="E109" t="n">
-        <v>77.1167968898899</v>
+        <v>77.4312195803869</v>
       </c>
       <c r="F109" t="n">
         <v>2018</v>
@@ -4928,13 +4928,13 @@
         <v>109</v>
       </c>
       <c r="C110" t="n">
-        <v>243.643839705462</v>
+        <v>244.610844637981</v>
       </c>
       <c r="D110" t="n">
-        <v>223.448954764378</v>
+        <v>225.315021265497</v>
       </c>
       <c r="E110" t="n">
-        <v>265.378537910183</v>
+        <v>265.997293490862</v>
       </c>
       <c r="F110" t="n">
         <v>2018</v>
@@ -4966,13 +4966,13 @@
         <v>110</v>
       </c>
       <c r="C111" t="n">
-        <v>350.472543346945</v>
+        <v>351.25708094029</v>
       </c>
       <c r="D111" t="n">
-        <v>324.157464597462</v>
+        <v>325.389077820885</v>
       </c>
       <c r="E111" t="n">
-        <v>377.819565225304</v>
+        <v>379.252090152734</v>
       </c>
       <c r="F111" t="n">
         <v>2018</v>
@@ -5004,13 +5004,13 @@
         <v>111</v>
       </c>
       <c r="C112" t="n">
-        <v>63.8058653520318</v>
+        <v>63.7432491697624</v>
       </c>
       <c r="D112" t="n">
-        <v>56.2292044119834</v>
+        <v>55.3223552097474</v>
       </c>
       <c r="E112" t="n">
-        <v>72.9436358086813</v>
+        <v>72.7639132368037</v>
       </c>
       <c r="F112" t="n">
         <v>2018</v>
@@ -5042,13 +5042,13 @@
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>175.073819820258</v>
+        <v>175.541167122917</v>
       </c>
       <c r="D113" t="n">
-        <v>159.932555034898</v>
+        <v>159.744484465734</v>
       </c>
       <c r="E113" t="n">
-        <v>193.280305131772</v>
+        <v>192.687111770817</v>
       </c>
       <c r="F113" t="n">
         <v>2018</v>
@@ -5080,13 +5080,13 @@
         <v>113</v>
       </c>
       <c r="C114" t="n">
-        <v>193.113044855519</v>
+        <v>192.79698326799</v>
       </c>
       <c r="D114" t="n">
-        <v>176.175018457043</v>
+        <v>174.964345554942</v>
       </c>
       <c r="E114" t="n">
-        <v>210.815090575067</v>
+        <v>212.832326965106</v>
       </c>
       <c r="F114" t="n">
         <v>2018</v>
@@ -5118,13 +5118,13 @@
         <v>114</v>
       </c>
       <c r="C115" t="n">
-        <v>400.84221719039</v>
+        <v>401.574272865196</v>
       </c>
       <c r="D115" t="n">
-        <v>373.074842837511</v>
+        <v>373.299043436311</v>
       </c>
       <c r="E115" t="n">
-        <v>430.725476759885</v>
+        <v>430.653384918444</v>
       </c>
       <c r="F115" t="n">
         <v>2018</v>
@@ -5156,13 +5156,13 @@
         <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>179.286534170308</v>
+        <v>178.434756916769</v>
       </c>
       <c r="D116" t="n">
-        <v>162.638452654921</v>
+        <v>162.540872751956</v>
       </c>
       <c r="E116" t="n">
-        <v>195.169847025113</v>
+        <v>195.472227853423</v>
       </c>
       <c r="F116" t="n">
         <v>2018</v>
@@ -5194,13 +5194,13 @@
         <v>116</v>
       </c>
       <c r="C117" t="n">
-        <v>52.7610178536231</v>
+        <v>52.8881235886261</v>
       </c>
       <c r="D117" t="n">
-        <v>45.4202699518329</v>
+        <v>45.7876042332173</v>
       </c>
       <c r="E117" t="n">
-        <v>61.3603754569467</v>
+        <v>61.1686927263997</v>
       </c>
       <c r="F117" t="n">
         <v>2018</v>
@@ -5232,13 +5232,13 @@
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>87.2672294009983</v>
+        <v>87.5195258261691</v>
       </c>
       <c r="D118" t="n">
-        <v>77.1911439556523</v>
+        <v>77.3298652858135</v>
       </c>
       <c r="E118" t="n">
-        <v>98.3896225492919</v>
+        <v>98.9023955124459</v>
       </c>
       <c r="F118" t="n">
         <v>2018</v>
@@ -5270,13 +5270,13 @@
         <v>118</v>
       </c>
       <c r="C119" t="n">
-        <v>277.773537973313</v>
+        <v>277.308127919409</v>
       </c>
       <c r="D119" t="n">
-        <v>255.974979903229</v>
+        <v>256.176212085011</v>
       </c>
       <c r="E119" t="n">
-        <v>302.052388959523</v>
+        <v>301.374983220885</v>
       </c>
       <c r="F119" t="n">
         <v>2018</v>
@@ -5308,13 +5308,13 @@
         <v>119</v>
       </c>
       <c r="C120" t="n">
-        <v>51.7171895406794</v>
+        <v>51.8798836786969</v>
       </c>
       <c r="D120" t="n">
-        <v>44.9565134898296</v>
+        <v>44.9648315966712</v>
       </c>
       <c r="E120" t="n">
-        <v>59.3474574615655</v>
+        <v>59.360200749292</v>
       </c>
       <c r="F120" t="n">
         <v>2018</v>
@@ -5346,13 +5346,13 @@
         <v>120</v>
       </c>
       <c r="C121" t="n">
-        <v>158.93856095101</v>
+        <v>159.209870352147</v>
       </c>
       <c r="D121" t="n">
-        <v>145.460321696226</v>
+        <v>144.748833767246</v>
       </c>
       <c r="E121" t="n">
-        <v>174.302065694361</v>
+        <v>175.450607665586</v>
       </c>
       <c r="F121" t="n">
         <v>2018</v>
@@ -5384,13 +5384,13 @@
         <v>122</v>
       </c>
       <c r="C122" t="n">
-        <v>362.424581460411</v>
+        <v>362.572022666271</v>
       </c>
       <c r="D122" t="n">
-        <v>337.649734110404</v>
+        <v>337.916703626789</v>
       </c>
       <c r="E122" t="n">
-        <v>389.403522042316</v>
+        <v>390.2869459037</v>
       </c>
       <c r="F122" t="n">
         <v>2018</v>
@@ -5422,13 +5422,13 @@
         <v>123</v>
       </c>
       <c r="C123" t="n">
-        <v>794.944727369778</v>
+        <v>794.088410577182</v>
       </c>
       <c r="D123" t="n">
-        <v>747.149970627678</v>
+        <v>747.300062031241</v>
       </c>
       <c r="E123" t="n">
-        <v>842.447584851462</v>
+        <v>840.645176759477</v>
       </c>
       <c r="F123" t="n">
         <v>2018</v>
@@ -5460,13 +5460,13 @@
         <v>124</v>
       </c>
       <c r="C124" t="n">
-        <v>862.140552401617</v>
+        <v>864.760015369967</v>
       </c>
       <c r="D124" t="n">
-        <v>811.651817076023</v>
+        <v>816.489199306489</v>
       </c>
       <c r="E124" t="n">
-        <v>910.988158995174</v>
+        <v>914.203274299871</v>
       </c>
       <c r="F124" t="n">
         <v>2018</v>
@@ -5498,13 +5498,13 @@
         <v>125</v>
       </c>
       <c r="C125" t="n">
-        <v>2240.07326334354</v>
+        <v>2236.98231109892</v>
       </c>
       <c r="D125" t="n">
-        <v>2131.89638960468</v>
+        <v>2131.84276276068</v>
       </c>
       <c r="E125" t="n">
-        <v>2361.39301083436</v>
+        <v>2350.72259806621</v>
       </c>
       <c r="F125" t="n">
         <v>2018</v>
@@ -5536,13 +5536,13 @@
         <v>126</v>
       </c>
       <c r="C126" t="n">
-        <v>383.789777720505</v>
+        <v>382.852086230487</v>
       </c>
       <c r="D126" t="n">
-        <v>357.050695134292</v>
+        <v>354.555062753034</v>
       </c>
       <c r="E126" t="n">
-        <v>414.831748599092</v>
+        <v>410.514867295274</v>
       </c>
       <c r="F126" t="n">
         <v>2018</v>
@@ -5574,13 +5574,13 @@
         <v>127</v>
       </c>
       <c r="C127" t="n">
-        <v>259.729499986097</v>
+        <v>260.783339310138</v>
       </c>
       <c r="D127" t="n">
-        <v>240.059562936828</v>
+        <v>238.621183724533</v>
       </c>
       <c r="E127" t="n">
-        <v>282.019763477718</v>
+        <v>281.801857019128</v>
       </c>
       <c r="F127" t="n">
         <v>2018</v>
@@ -5612,13 +5612,13 @@
         <v>128</v>
       </c>
       <c r="C128" t="n">
-        <v>325.799031774893</v>
+        <v>326.172403744754</v>
       </c>
       <c r="D128" t="n">
-        <v>301.145360966647</v>
+        <v>302.355744837744</v>
       </c>
       <c r="E128" t="n">
-        <v>351.276352004582</v>
+        <v>351.360098978609</v>
       </c>
       <c r="F128" t="n">
         <v>2018</v>
@@ -5650,13 +5650,13 @@
         <v>129</v>
       </c>
       <c r="C129" t="n">
-        <v>150.509158000789</v>
+        <v>151.155373455769</v>
       </c>
       <c r="D129" t="n">
-        <v>135.916887195766</v>
+        <v>137.063504772443</v>
       </c>
       <c r="E129" t="n">
-        <v>166.867337551124</v>
+        <v>165.19119091299</v>
       </c>
       <c r="F129" t="n">
         <v>2018</v>
@@ -5688,13 +5688,13 @@
         <v>130</v>
       </c>
       <c r="C130" t="n">
-        <v>155.224196549875</v>
+        <v>155.020231229285</v>
       </c>
       <c r="D130" t="n">
-        <v>141.192487726506</v>
+        <v>140.732458936858</v>
       </c>
       <c r="E130" t="n">
-        <v>170.008567021654</v>
+        <v>171.880026868056</v>
       </c>
       <c r="F130" t="n">
         <v>2018</v>
@@ -5726,13 +5726,13 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>46.4014243622014</v>
+        <v>45.8023240834898</v>
       </c>
       <c r="D131" t="n">
-        <v>39.6069653458681</v>
+        <v>39.5712226884541</v>
       </c>
       <c r="E131" t="n">
-        <v>54.1500076159256</v>
+        <v>54.5916740881718</v>
       </c>
       <c r="F131" t="n">
         <v>2019</v>
@@ -5764,13 +5764,13 @@
         <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>90.7785276442902</v>
+        <v>91.3883387101621</v>
       </c>
       <c r="D132" t="n">
-        <v>81.1296302344848</v>
+        <v>81.335225867845</v>
       </c>
       <c r="E132" t="n">
-        <v>101.418318355294</v>
+        <v>102.647521277316</v>
       </c>
       <c r="F132" t="n">
         <v>2019</v>
@@ -5802,13 +5802,13 @@
         <v>3</v>
       </c>
       <c r="C133" t="n">
-        <v>97.1903057258835</v>
+        <v>97.6771032670156</v>
       </c>
       <c r="D133" t="n">
-        <v>87.6471467543729</v>
+        <v>87.932425533084</v>
       </c>
       <c r="E133" t="n">
-        <v>108.397474656376</v>
+        <v>108.761840860674</v>
       </c>
       <c r="F133" t="n">
         <v>2019</v>
@@ -5840,13 +5840,13 @@
         <v>4</v>
       </c>
       <c r="C134" t="n">
-        <v>1766.83293811205</v>
+        <v>1765.40273337157</v>
       </c>
       <c r="D134" t="n">
-        <v>1704.28753970882</v>
+        <v>1703.48710345884</v>
       </c>
       <c r="E134" t="n">
-        <v>1827.61377158598</v>
+        <v>1832.48489107015</v>
       </c>
       <c r="F134" t="n">
         <v>2019</v>
@@ -5878,13 +5878,13 @@
         <v>5</v>
       </c>
       <c r="C135" t="n">
-        <v>251.296055252219</v>
+        <v>251.564149148879</v>
       </c>
       <c r="D135" t="n">
-        <v>232.661174065116</v>
+        <v>234.290335844155</v>
       </c>
       <c r="E135" t="n">
-        <v>269.411716953552</v>
+        <v>271.084054652751</v>
       </c>
       <c r="F135" t="n">
         <v>2019</v>
@@ -5916,13 +5916,13 @@
         <v>6</v>
       </c>
       <c r="C136" t="n">
-        <v>1159.87257711115</v>
+        <v>1159.85281653859</v>
       </c>
       <c r="D136" t="n">
-        <v>1116.59953295293</v>
+        <v>1115.34541977388</v>
       </c>
       <c r="E136" t="n">
-        <v>1204.16307740909</v>
+        <v>1207.39800992985</v>
       </c>
       <c r="F136" t="n">
         <v>2019</v>
@@ -5954,13 +5954,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="n">
-        <v>491.571126813932</v>
+        <v>490.737084354978</v>
       </c>
       <c r="D137" t="n">
-        <v>464.728211162034</v>
+        <v>464.002001861593</v>
       </c>
       <c r="E137" t="n">
-        <v>518.197000860697</v>
+        <v>518.065902388292</v>
       </c>
       <c r="F137" t="n">
         <v>2019</v>
@@ -5992,13 +5992,13 @@
         <v>8</v>
       </c>
       <c r="C138" t="n">
-        <v>71.9778150282779</v>
+        <v>72.6369993605731</v>
       </c>
       <c r="D138" t="n">
-        <v>64.0604453789133</v>
+        <v>64.3202964911164</v>
       </c>
       <c r="E138" t="n">
-        <v>80.7360840088711</v>
+        <v>81.9210445868978</v>
       </c>
       <c r="F138" t="n">
         <v>2019</v>
@@ -6030,13 +6030,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>131.176046085124</v>
+        <v>130.460966600105</v>
       </c>
       <c r="D139" t="n">
-        <v>119.341727637158</v>
+        <v>118.234876569178</v>
       </c>
       <c r="E139" t="n">
-        <v>144.859073265662</v>
+        <v>143.544153081322</v>
       </c>
       <c r="F139" t="n">
         <v>2019</v>
@@ -6068,13 +6068,13 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>97.4438728171699</v>
+        <v>97.3992385510687</v>
       </c>
       <c r="D140" t="n">
-        <v>87.5484945886526</v>
+        <v>87.0100132106193</v>
       </c>
       <c r="E140" t="n">
-        <v>107.715923437267</v>
+        <v>109.082751087519</v>
       </c>
       <c r="F140" t="n">
         <v>2019</v>
@@ -6106,13 +6106,13 @@
         <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>196.558626198972</v>
+        <v>196.56737018729</v>
       </c>
       <c r="D141" t="n">
-        <v>181.28573119443</v>
+        <v>181.593197671855</v>
       </c>
       <c r="E141" t="n">
-        <v>213.156917320994</v>
+        <v>213.203576954325</v>
       </c>
       <c r="F141" t="n">
         <v>2019</v>
@@ -6144,13 +6144,13 @@
         <v>12</v>
       </c>
       <c r="C142" t="n">
-        <v>248.457950404443</v>
+        <v>248.153043560214</v>
       </c>
       <c r="D142" t="n">
-        <v>230.876899935967</v>
+        <v>230.404885084864</v>
       </c>
       <c r="E142" t="n">
-        <v>265.686463880741</v>
+        <v>265.558082817119</v>
       </c>
       <c r="F142" t="n">
         <v>2019</v>
@@ -6182,13 +6182,13 @@
         <v>13</v>
       </c>
       <c r="C143" t="n">
-        <v>91.7116823177666</v>
+        <v>91.6599792925845</v>
       </c>
       <c r="D143" t="n">
-        <v>81.1265946610637</v>
+        <v>81.4811701145557</v>
       </c>
       <c r="E143" t="n">
-        <v>102.223445650306</v>
+        <v>102.600436842063</v>
       </c>
       <c r="F143" t="n">
         <v>2019</v>
@@ -6220,13 +6220,13 @@
         <v>14</v>
       </c>
       <c r="C144" t="n">
-        <v>31.8535253541315</v>
+        <v>31.4381562597503</v>
       </c>
       <c r="D144" t="n">
-        <v>26.9756399452923</v>
+        <v>26.6689426202305</v>
       </c>
       <c r="E144" t="n">
-        <v>37.2247008239355</v>
+        <v>37.1644784515677</v>
       </c>
       <c r="F144" t="n">
         <v>2019</v>
@@ -6258,13 +6258,13 @@
         <v>15</v>
       </c>
       <c r="C145" t="n">
-        <v>158.009110868017</v>
+        <v>156.6932949817</v>
       </c>
       <c r="D145" t="n">
-        <v>144.220495920065</v>
+        <v>142.754857811617</v>
       </c>
       <c r="E145" t="n">
-        <v>172.254250590249</v>
+        <v>170.790403450571</v>
       </c>
       <c r="F145" t="n">
         <v>2019</v>
@@ -6296,13 +6296,13 @@
         <v>16</v>
       </c>
       <c r="C146" t="n">
-        <v>183.953021196369</v>
+        <v>185.219525411689</v>
       </c>
       <c r="D146" t="n">
-        <v>169.874212913316</v>
+        <v>170.894241871077</v>
       </c>
       <c r="E146" t="n">
-        <v>199.700878280096</v>
+        <v>202.103685945152</v>
       </c>
       <c r="F146" t="n">
         <v>2019</v>
@@ -6334,13 +6334,13 @@
         <v>17</v>
       </c>
       <c r="C147" t="n">
-        <v>182.712585396242</v>
+        <v>182.539052209949</v>
       </c>
       <c r="D147" t="n">
-        <v>168.141932061593</v>
+        <v>167.339850669709</v>
       </c>
       <c r="E147" t="n">
-        <v>199.113449434884</v>
+        <v>199.180106907247</v>
       </c>
       <c r="F147" t="n">
         <v>2019</v>
@@ -6372,13 +6372,13 @@
         <v>18</v>
       </c>
       <c r="C148" t="n">
-        <v>40.9652483880189</v>
+        <v>41.3851161650519</v>
       </c>
       <c r="D148" t="n">
-        <v>35.1459899094267</v>
+        <v>35.583176003136</v>
       </c>
       <c r="E148" t="n">
-        <v>47.7676875544739</v>
+        <v>48.0095078694713</v>
       </c>
       <c r="F148" t="n">
         <v>2019</v>
@@ -6410,13 +6410,13 @@
         <v>19</v>
       </c>
       <c r="C149" t="n">
-        <v>277.70961640777</v>
+        <v>277.454985910991</v>
       </c>
       <c r="D149" t="n">
-        <v>259.020999701343</v>
+        <v>257.660772415428</v>
       </c>
       <c r="E149" t="n">
-        <v>297.272274953624</v>
+        <v>296.848517284009</v>
       </c>
       <c r="F149" t="n">
         <v>2019</v>
@@ -6448,13 +6448,13 @@
         <v>20</v>
       </c>
       <c r="C150" t="n">
-        <v>123.306417785151</v>
+        <v>123.893640926729</v>
       </c>
       <c r="D150" t="n">
-        <v>111.314340407482</v>
+        <v>112.650023390381</v>
       </c>
       <c r="E150" t="n">
-        <v>137.217538701754</v>
+        <v>136.167505044796</v>
       </c>
       <c r="F150" t="n">
         <v>2019</v>
@@ -6486,13 +6486,13 @@
         <v>21</v>
       </c>
       <c r="C151" t="n">
-        <v>135.950788732349</v>
+        <v>136.576867976688</v>
       </c>
       <c r="D151" t="n">
-        <v>122.757337948971</v>
+        <v>123.065351473225</v>
       </c>
       <c r="E151" t="n">
-        <v>149.168564267051</v>
+        <v>149.746113949788</v>
       </c>
       <c r="F151" t="n">
         <v>2019</v>
@@ -6524,13 +6524,13 @@
         <v>22</v>
       </c>
       <c r="C152" t="n">
-        <v>415.399555400942</v>
+        <v>415.175534032558</v>
       </c>
       <c r="D152" t="n">
-        <v>392.959478075723</v>
+        <v>389.670627445134</v>
       </c>
       <c r="E152" t="n">
-        <v>441.024582378234</v>
+        <v>441.408039956022</v>
       </c>
       <c r="F152" t="n">
         <v>2019</v>
@@ -6562,13 +6562,13 @@
         <v>23</v>
       </c>
       <c r="C153" t="n">
-        <v>255.702115870713</v>
+        <v>255.649340985596</v>
       </c>
       <c r="D153" t="n">
-        <v>238.195816612894</v>
+        <v>235.358953219902</v>
       </c>
       <c r="E153" t="n">
-        <v>274.922109794667</v>
+        <v>275.889296653252</v>
       </c>
       <c r="F153" t="n">
         <v>2019</v>
@@ -6600,13 +6600,13 @@
         <v>24</v>
       </c>
       <c r="C154" t="n">
-        <v>297.561247281351</v>
+        <v>299.009072128008</v>
       </c>
       <c r="D154" t="n">
-        <v>277.996782326185</v>
+        <v>279.378396026744</v>
       </c>
       <c r="E154" t="n">
-        <v>317.906430870448</v>
+        <v>320.647328117743</v>
       </c>
       <c r="F154" t="n">
         <v>2019</v>
@@ -6638,13 +6638,13 @@
         <v>25</v>
       </c>
       <c r="C155" t="n">
-        <v>255.826759405032</v>
+        <v>255.515613064465</v>
       </c>
       <c r="D155" t="n">
-        <v>238.355364039133</v>
+        <v>237.700828500754</v>
       </c>
       <c r="E155" t="n">
-        <v>274.756903982353</v>
+        <v>274.016142495279</v>
       </c>
       <c r="F155" t="n">
         <v>2019</v>
@@ -6676,13 +6676,13 @@
         <v>26</v>
       </c>
       <c r="C156" t="n">
-        <v>162.482288504072</v>
+        <v>162.740863335257</v>
       </c>
       <c r="D156" t="n">
-        <v>149.30922020257</v>
+        <v>148.116286003809</v>
       </c>
       <c r="E156" t="n">
-        <v>176.348931575781</v>
+        <v>175.789491423888</v>
       </c>
       <c r="F156" t="n">
         <v>2019</v>
@@ -6714,13 +6714,13 @@
         <v>27</v>
       </c>
       <c r="C157" t="n">
-        <v>46.9338436766662</v>
+        <v>47.4443969260415</v>
       </c>
       <c r="D157" t="n">
-        <v>41.159383211736</v>
+        <v>40.9103529363098</v>
       </c>
       <c r="E157" t="n">
-        <v>54.2161388318714</v>
+        <v>54.0406383056306</v>
       </c>
       <c r="F157" t="n">
         <v>2019</v>
@@ -6752,13 +6752,13 @@
         <v>28</v>
       </c>
       <c r="C158" t="n">
-        <v>106.927857569062</v>
+        <v>106.867983217266</v>
       </c>
       <c r="D158" t="n">
-        <v>96.1697216500039</v>
+        <v>96.6978474165753</v>
       </c>
       <c r="E158" t="n">
-        <v>119.567330585503</v>
+        <v>118.852446902241</v>
       </c>
       <c r="F158" t="n">
         <v>2019</v>
@@ -6790,13 +6790,13 @@
         <v>29</v>
       </c>
       <c r="C159" t="n">
-        <v>57.1206703270986</v>
+        <v>56.9177149289868</v>
       </c>
       <c r="D159" t="n">
-        <v>49.5251390503226</v>
+        <v>49.3964241543367</v>
       </c>
       <c r="E159" t="n">
-        <v>65.1623756017206</v>
+        <v>65.2733017641338</v>
       </c>
       <c r="F159" t="n">
         <v>2019</v>
@@ -6828,13 +6828,13 @@
         <v>30</v>
       </c>
       <c r="C160" t="n">
-        <v>558.52532840199</v>
+        <v>558.068933107264</v>
       </c>
       <c r="D160" t="n">
-        <v>532.019307236762</v>
+        <v>529.269322818997</v>
       </c>
       <c r="E160" t="n">
-        <v>586.354985197578</v>
+        <v>587.532799255654</v>
       </c>
       <c r="F160" t="n">
         <v>2019</v>
@@ -6866,13 +6866,13 @@
         <v>31</v>
       </c>
       <c r="C161" t="n">
-        <v>217.151798566785</v>
+        <v>216.964073605494</v>
       </c>
       <c r="D161" t="n">
-        <v>200.183771288143</v>
+        <v>201.928221407382</v>
       </c>
       <c r="E161" t="n">
-        <v>234.792653852913</v>
+        <v>233.543474111489</v>
       </c>
       <c r="F161" t="n">
         <v>2019</v>
@@ -6904,13 +6904,13 @@
         <v>32</v>
       </c>
       <c r="C162" t="n">
-        <v>121.806704101856</v>
+        <v>121.45923355399</v>
       </c>
       <c r="D162" t="n">
-        <v>110.00608946067</v>
+        <v>108.605137884303</v>
       </c>
       <c r="E162" t="n">
-        <v>134.543814366861</v>
+        <v>135.042638105498</v>
       </c>
       <c r="F162" t="n">
         <v>2019</v>
@@ -6942,13 +6942,13 @@
         <v>33</v>
       </c>
       <c r="C163" t="n">
-        <v>309.301412791327</v>
+        <v>308.187810923711</v>
       </c>
       <c r="D163" t="n">
-        <v>289.082629628129</v>
+        <v>288.696134047692</v>
       </c>
       <c r="E163" t="n">
-        <v>330.650870087457</v>
+        <v>329.543067920601</v>
       </c>
       <c r="F163" t="n">
         <v>2019</v>
@@ -6980,13 +6980,13 @@
         <v>34</v>
       </c>
       <c r="C164" t="n">
-        <v>59.9358565313258</v>
+        <v>60.2120167628808</v>
       </c>
       <c r="D164" t="n">
-        <v>52.8141102465347</v>
+        <v>52.8335852973003</v>
       </c>
       <c r="E164" t="n">
-        <v>68.2667682499952</v>
+        <v>68.3215844255725</v>
       </c>
       <c r="F164" t="n">
         <v>2019</v>
@@ -7018,13 +7018,13 @@
         <v>35</v>
       </c>
       <c r="C165" t="n">
-        <v>285.221065173966</v>
+        <v>284.487304048787</v>
       </c>
       <c r="D165" t="n">
-        <v>265.802544646743</v>
+        <v>265.607320413895</v>
       </c>
       <c r="E165" t="n">
-        <v>303.007079422082</v>
+        <v>303.252010245527</v>
       </c>
       <c r="F165" t="n">
         <v>2019</v>
@@ -7056,13 +7056,13 @@
         <v>36</v>
       </c>
       <c r="C166" t="n">
-        <v>61.8180274650992</v>
+        <v>61.7486192217326</v>
       </c>
       <c r="D166" t="n">
-        <v>54.7037818418599</v>
+        <v>53.5280820417489</v>
       </c>
       <c r="E166" t="n">
-        <v>70.1782565804737</v>
+        <v>69.8781183720843</v>
       </c>
       <c r="F166" t="n">
         <v>2019</v>
@@ -7094,13 +7094,13 @@
         <v>37</v>
       </c>
       <c r="C167" t="n">
-        <v>493.593084538066</v>
+        <v>494.198637718253</v>
       </c>
       <c r="D167" t="n">
-        <v>466.102571396621</v>
+        <v>466.767818992592</v>
       </c>
       <c r="E167" t="n">
-        <v>522.47072171754</v>
+        <v>521.33675811138</v>
       </c>
       <c r="F167" t="n">
         <v>2019</v>
@@ -7132,13 +7132,13 @@
         <v>38</v>
       </c>
       <c r="C168" t="n">
-        <v>238.781615295086</v>
+        <v>238.793515088941</v>
       </c>
       <c r="D168" t="n">
-        <v>221.594828101751</v>
+        <v>220.327316411582</v>
       </c>
       <c r="E168" t="n">
-        <v>257.61032630132</v>
+        <v>257.724979410749</v>
       </c>
       <c r="F168" t="n">
         <v>2019</v>
@@ -7170,13 +7170,13 @@
         <v>39</v>
       </c>
       <c r="C169" t="n">
-        <v>335.466688792501</v>
+        <v>335.047035614402</v>
       </c>
       <c r="D169" t="n">
-        <v>314.771568350181</v>
+        <v>313.457566645915</v>
       </c>
       <c r="E169" t="n">
-        <v>357.884062956524</v>
+        <v>356.919139736821</v>
       </c>
       <c r="F169" t="n">
         <v>2019</v>
@@ -7208,13 +7208,13 @@
         <v>40</v>
       </c>
       <c r="C170" t="n">
-        <v>351.366233056065</v>
+        <v>351.410459363742</v>
       </c>
       <c r="D170" t="n">
-        <v>329.195647172603</v>
+        <v>329.746860323016</v>
       </c>
       <c r="E170" t="n">
-        <v>372.805414047636</v>
+        <v>375.202126060986</v>
       </c>
       <c r="F170" t="n">
         <v>2019</v>
@@ -7246,13 +7246,13 @@
         <v>41</v>
       </c>
       <c r="C171" t="n">
-        <v>44.1967970100694</v>
+        <v>43.9028048625228</v>
       </c>
       <c r="D171" t="n">
-        <v>37.9145613024272</v>
+        <v>37.568634953348</v>
       </c>
       <c r="E171" t="n">
-        <v>51.1403384608038</v>
+        <v>50.740167366567</v>
       </c>
       <c r="F171" t="n">
         <v>2019</v>
@@ -7284,13 +7284,13 @@
         <v>42</v>
       </c>
       <c r="C172" t="n">
-        <v>22.4757680219129</v>
+        <v>21.7347045175003</v>
       </c>
       <c r="D172" t="n">
-        <v>18.7149126906888</v>
+        <v>17.880564459604</v>
       </c>
       <c r="E172" t="n">
-        <v>26.7821224699024</v>
+        <v>26.2616703603536</v>
       </c>
       <c r="F172" t="n">
         <v>2019</v>
@@ -7322,13 +7322,13 @@
         <v>43</v>
       </c>
       <c r="C173" t="n">
-        <v>211.114137536481</v>
+        <v>211.222259189828</v>
       </c>
       <c r="D173" t="n">
-        <v>195.647915436496</v>
+        <v>194.892122474993</v>
       </c>
       <c r="E173" t="n">
-        <v>229.463960502427</v>
+        <v>228.294183334522</v>
       </c>
       <c r="F173" t="n">
         <v>2019</v>
@@ -7360,13 +7360,13 @@
         <v>44</v>
       </c>
       <c r="C174" t="n">
-        <v>53.0022994309558</v>
+        <v>53.0779104028944</v>
       </c>
       <c r="D174" t="n">
-        <v>46.1183323388608</v>
+        <v>45.9456466011118</v>
       </c>
       <c r="E174" t="n">
-        <v>60.8015087715136</v>
+        <v>61.5691625462173</v>
       </c>
       <c r="F174" t="n">
         <v>2019</v>
@@ -7398,13 +7398,13 @@
         <v>45</v>
       </c>
       <c r="C175" t="n">
-        <v>140.958056793783</v>
+        <v>139.628960348897</v>
       </c>
       <c r="D175" t="n">
-        <v>127.445246189879</v>
+        <v>127.751737885419</v>
       </c>
       <c r="E175" t="n">
-        <v>154.761955720688</v>
+        <v>153.552569647596</v>
       </c>
       <c r="F175" t="n">
         <v>2019</v>
@@ -7436,13 +7436,13 @@
         <v>46</v>
       </c>
       <c r="C176" t="n">
-        <v>112.570581073274</v>
+        <v>112.534440338904</v>
       </c>
       <c r="D176" t="n">
-        <v>101.348224624217</v>
+        <v>101.226149976925</v>
       </c>
       <c r="E176" t="n">
-        <v>124.174057314216</v>
+        <v>124.378439330541</v>
       </c>
       <c r="F176" t="n">
         <v>2019</v>
@@ -7474,13 +7474,13 @@
         <v>47</v>
       </c>
       <c r="C177" t="n">
-        <v>256.64826972918</v>
+        <v>257.264149902587</v>
       </c>
       <c r="D177" t="n">
-        <v>238.462004937846</v>
+        <v>237.262016921524</v>
       </c>
       <c r="E177" t="n">
-        <v>276.760171864427</v>
+        <v>277.134141657534</v>
       </c>
       <c r="F177" t="n">
         <v>2019</v>
@@ -7512,13 +7512,13 @@
         <v>48</v>
       </c>
       <c r="C178" t="n">
-        <v>513.256715300803</v>
+        <v>512.805276573296</v>
       </c>
       <c r="D178" t="n">
-        <v>486.97747462115</v>
+        <v>485.635019347885</v>
       </c>
       <c r="E178" t="n">
-        <v>542.040570425506</v>
+        <v>540.038913064314</v>
       </c>
       <c r="F178" t="n">
         <v>2019</v>
@@ -7550,13 +7550,13 @@
         <v>49</v>
       </c>
       <c r="C179" t="n">
-        <v>80.1132592677454</v>
+        <v>79.9317961551498</v>
       </c>
       <c r="D179" t="n">
-        <v>70.9091136454833</v>
+        <v>70.8462889251585</v>
       </c>
       <c r="E179" t="n">
-        <v>90.29574861389</v>
+        <v>90.2501471042306</v>
       </c>
       <c r="F179" t="n">
         <v>2019</v>
@@ -7588,13 +7588,13 @@
         <v>50</v>
       </c>
       <c r="C180" t="n">
-        <v>201.664519778183</v>
+        <v>201.866699712964</v>
       </c>
       <c r="D180" t="n">
-        <v>185.206405023775</v>
+        <v>186.425817722768</v>
       </c>
       <c r="E180" t="n">
-        <v>217.861006114613</v>
+        <v>217.967961190782</v>
       </c>
       <c r="F180" t="n">
         <v>2019</v>
@@ -7626,13 +7626,13 @@
         <v>51</v>
       </c>
       <c r="C181" t="n">
-        <v>101.562766133015</v>
+        <v>101.842888874842</v>
       </c>
       <c r="D181" t="n">
-        <v>90.5695786777569</v>
+        <v>91.2762576474764</v>
       </c>
       <c r="E181" t="n">
-        <v>112.561017332732</v>
+        <v>112.443108721847</v>
       </c>
       <c r="F181" t="n">
         <v>2019</v>
@@ -7664,13 +7664,13 @@
         <v>52</v>
       </c>
       <c r="C182" t="n">
-        <v>29.7492695815695</v>
+        <v>29.2292318107334</v>
       </c>
       <c r="D182" t="n">
-        <v>24.6649420179363</v>
+        <v>24.4046163463657</v>
       </c>
       <c r="E182" t="n">
-        <v>35.2696789260895</v>
+        <v>35.1448182925323</v>
       </c>
       <c r="F182" t="n">
         <v>2019</v>
@@ -7702,13 +7702,13 @@
         <v>53</v>
       </c>
       <c r="C183" t="n">
-        <v>25.4239034968074</v>
+        <v>25.2940272925579</v>
       </c>
       <c r="D183" t="n">
-        <v>20.3385811474512</v>
+        <v>20.4060675942324</v>
       </c>
       <c r="E183" t="n">
-        <v>31.0668803506758</v>
+        <v>30.7779700475045</v>
       </c>
       <c r="F183" t="n">
         <v>2019</v>
@@ -7740,13 +7740,13 @@
         <v>54</v>
       </c>
       <c r="C184" t="n">
-        <v>192.841686696245</v>
+        <v>194.044624969118</v>
       </c>
       <c r="D184" t="n">
-        <v>177.580747078299</v>
+        <v>177.365075993611</v>
       </c>
       <c r="E184" t="n">
-        <v>209.095239483531</v>
+        <v>210.150726496331</v>
       </c>
       <c r="F184" t="n">
         <v>2019</v>
@@ -7778,13 +7778,13 @@
         <v>55</v>
       </c>
       <c r="C185" t="n">
-        <v>348.958373248594</v>
+        <v>349.28717471939</v>
       </c>
       <c r="D185" t="n">
-        <v>326.964553284065</v>
+        <v>325.934731531136</v>
       </c>
       <c r="E185" t="n">
-        <v>371.332107992845</v>
+        <v>371.270594412165</v>
       </c>
       <c r="F185" t="n">
         <v>2019</v>
@@ -7816,13 +7816,13 @@
         <v>56</v>
       </c>
       <c r="C186" t="n">
-        <v>354.480612164527</v>
+        <v>355.668827317589</v>
       </c>
       <c r="D186" t="n">
-        <v>333.240722134274</v>
+        <v>333.297256352933</v>
       </c>
       <c r="E186" t="n">
-        <v>376.002789529809</v>
+        <v>379.464849926657</v>
       </c>
       <c r="F186" t="n">
         <v>2019</v>
@@ -7854,13 +7854,13 @@
         <v>57</v>
       </c>
       <c r="C187" t="n">
-        <v>457.084152053972</v>
+        <v>456.079787747879</v>
       </c>
       <c r="D187" t="n">
-        <v>432.517803389663</v>
+        <v>430.465632471668</v>
       </c>
       <c r="E187" t="n">
-        <v>482.515857405495</v>
+        <v>482.84954355906</v>
       </c>
       <c r="F187" t="n">
         <v>2019</v>
@@ -7892,13 +7892,13 @@
         <v>58</v>
       </c>
       <c r="C188" t="n">
-        <v>138.156361943092</v>
+        <v>137.279317240493</v>
       </c>
       <c r="D188" t="n">
-        <v>125.349043248716</v>
+        <v>124.488162321588</v>
       </c>
       <c r="E188" t="n">
-        <v>151.903687015953</v>
+        <v>151.277369593743</v>
       </c>
       <c r="F188" t="n">
         <v>2019</v>
@@ -7930,13 +7930,13 @@
         <v>59</v>
       </c>
       <c r="C189" t="n">
-        <v>483.625041272639</v>
+        <v>483.002945192488</v>
       </c>
       <c r="D189" t="n">
-        <v>456.230120178545</v>
+        <v>453.672733282196</v>
       </c>
       <c r="E189" t="n">
-        <v>509.957053272676</v>
+        <v>509.943880755732</v>
       </c>
       <c r="F189" t="n">
         <v>2019</v>
@@ -7968,13 +7968,13 @@
         <v>60</v>
       </c>
       <c r="C190" t="n">
-        <v>196.413607106819</v>
+        <v>196.035916441601</v>
       </c>
       <c r="D190" t="n">
-        <v>181.544533399904</v>
+        <v>180.592033190538</v>
       </c>
       <c r="E190" t="n">
-        <v>212.657636769994</v>
+        <v>211.747293701211</v>
       </c>
       <c r="F190" t="n">
         <v>2019</v>
@@ -8006,13 +8006,13 @@
         <v>61</v>
       </c>
       <c r="C191" t="n">
-        <v>123.957541598364</v>
+        <v>123.82619834789</v>
       </c>
       <c r="D191" t="n">
-        <v>112.506815399897</v>
+        <v>111.889789225338</v>
       </c>
       <c r="E191" t="n">
-        <v>135.841234092796</v>
+        <v>136.1620458865</v>
       </c>
       <c r="F191" t="n">
         <v>2019</v>
@@ -8044,13 +8044,13 @@
         <v>62</v>
       </c>
       <c r="C192" t="n">
-        <v>653.667395497864</v>
+        <v>654.926622954725</v>
       </c>
       <c r="D192" t="n">
-        <v>621.857904864165</v>
+        <v>622.413028982719</v>
       </c>
       <c r="E192" t="n">
-        <v>687.234597743554</v>
+        <v>689.097844738286</v>
       </c>
       <c r="F192" t="n">
         <v>2019</v>
@@ -8082,13 +8082,13 @@
         <v>63</v>
       </c>
       <c r="C193" t="n">
-        <v>45.2303815679844</v>
+        <v>44.7422240189219</v>
       </c>
       <c r="D193" t="n">
-        <v>39.2499720320486</v>
+        <v>38.4838695945231</v>
       </c>
       <c r="E193" t="n">
-        <v>52.2192986657563</v>
+        <v>51.7415398804214</v>
       </c>
       <c r="F193" t="n">
         <v>2019</v>
@@ -8120,13 +8120,13 @@
         <v>64</v>
       </c>
       <c r="C194" t="n">
-        <v>161.300400365803</v>
+        <v>161.969808116665</v>
       </c>
       <c r="D194" t="n">
-        <v>146.901650877896</v>
+        <v>148.268205670657</v>
       </c>
       <c r="E194" t="n">
-        <v>175.571501878416</v>
+        <v>178.24856847005</v>
       </c>
       <c r="F194" t="n">
         <v>2019</v>
@@ -8158,13 +8158,13 @@
         <v>65</v>
       </c>
       <c r="C195" t="n">
-        <v>154.250373895724</v>
+        <v>154.633526431972</v>
       </c>
       <c r="D195" t="n">
-        <v>141.485108506755</v>
+        <v>141.02405522695</v>
       </c>
       <c r="E195" t="n">
-        <v>168.4642944136</v>
+        <v>168.257744715479</v>
       </c>
       <c r="F195" t="n">
         <v>2019</v>
@@ -8196,13 +8196,13 @@
         <v>66</v>
       </c>
       <c r="C196" t="n">
-        <v>66.5099289779406</v>
+        <v>66.0012481809069</v>
       </c>
       <c r="D196" t="n">
-        <v>58.693723252826</v>
+        <v>57.424295147624</v>
       </c>
       <c r="E196" t="n">
-        <v>74.3693146526014</v>
+        <v>75.508542007916</v>
       </c>
       <c r="F196" t="n">
         <v>2019</v>
@@ -8234,13 +8234,13 @@
         <v>67</v>
       </c>
       <c r="C197" t="n">
-        <v>96.7295929476585</v>
+        <v>97.2137939355926</v>
       </c>
       <c r="D197" t="n">
-        <v>87.1569074610125</v>
+        <v>86.9091830981277</v>
       </c>
       <c r="E197" t="n">
-        <v>107.755078160002</v>
+        <v>107.610552180069</v>
       </c>
       <c r="F197" t="n">
         <v>2019</v>
@@ -8272,13 +8272,13 @@
         <v>68</v>
       </c>
       <c r="C198" t="n">
-        <v>111.812025466451</v>
+        <v>111.132453697127</v>
       </c>
       <c r="D198" t="n">
-        <v>100.979666682472</v>
+        <v>100.329632076596</v>
       </c>
       <c r="E198" t="n">
-        <v>124.127073910486</v>
+        <v>123.560331854197</v>
       </c>
       <c r="F198" t="n">
         <v>2019</v>
@@ -8310,13 +8310,13 @@
         <v>69</v>
       </c>
       <c r="C199" t="n">
-        <v>470.913503804193</v>
+        <v>470.458078399648</v>
       </c>
       <c r="D199" t="n">
-        <v>445.287392374842</v>
+        <v>445.060595470982</v>
       </c>
       <c r="E199" t="n">
-        <v>497.525733520975</v>
+        <v>497.687161025961</v>
       </c>
       <c r="F199" t="n">
         <v>2019</v>
@@ -8348,13 +8348,13 @@
         <v>70</v>
       </c>
       <c r="C200" t="n">
-        <v>40.7191759449297</v>
+        <v>40.985735881798</v>
       </c>
       <c r="D200" t="n">
-        <v>34.4196092865252</v>
+        <v>34.6144566188989</v>
       </c>
       <c r="E200" t="n">
-        <v>47.5378760368339</v>
+        <v>47.8896362196736</v>
       </c>
       <c r="F200" t="n">
         <v>2019</v>
@@ -8386,13 +8386,13 @@
         <v>71</v>
       </c>
       <c r="C201" t="n">
-        <v>72.0287396149682</v>
+        <v>71.642586929184</v>
       </c>
       <c r="D201" t="n">
-        <v>63.7672710398202</v>
+        <v>62.7373649824121</v>
       </c>
       <c r="E201" t="n">
-        <v>81.8566223674495</v>
+        <v>81.273639852288</v>
       </c>
       <c r="F201" t="n">
         <v>2019</v>
@@ -8424,13 +8424,13 @@
         <v>72</v>
       </c>
       <c r="C202" t="n">
-        <v>141.847213273699</v>
+        <v>142.056151669844</v>
       </c>
       <c r="D202" t="n">
-        <v>128.987243713713</v>
+        <v>128.043809406391</v>
       </c>
       <c r="E202" t="n">
-        <v>155.993788018941</v>
+        <v>154.752962521022</v>
       </c>
       <c r="F202" t="n">
         <v>2019</v>
@@ -8462,13 +8462,13 @@
         <v>73</v>
       </c>
       <c r="C203" t="n">
-        <v>384.304183274612</v>
+        <v>384.569096098625</v>
       </c>
       <c r="D203" t="n">
-        <v>363.132835189602</v>
+        <v>361.664641965106</v>
       </c>
       <c r="E203" t="n">
-        <v>406.153365195626</v>
+        <v>408.831816267006</v>
       </c>
       <c r="F203" t="n">
         <v>2019</v>
@@ -8500,13 +8500,13 @@
         <v>74</v>
       </c>
       <c r="C204" t="n">
-        <v>48.6003880357502</v>
+        <v>48.3231835418798</v>
       </c>
       <c r="D204" t="n">
-        <v>42.3378193936503</v>
+        <v>42.1815043226631</v>
       </c>
       <c r="E204" t="n">
-        <v>55.7778972537918</v>
+        <v>55.5147838708264</v>
       </c>
       <c r="F204" t="n">
         <v>2019</v>
@@ -8538,13 +8538,13 @@
         <v>75</v>
       </c>
       <c r="C205" t="n">
-        <v>48.4533581202883</v>
+        <v>48.4286053291206</v>
       </c>
       <c r="D205" t="n">
-        <v>41.5534451909253</v>
+        <v>41.4842091373879</v>
       </c>
       <c r="E205" t="n">
-        <v>56.7300621955139</v>
+        <v>56.7590415851891</v>
       </c>
       <c r="F205" t="n">
         <v>2019</v>
@@ -8576,13 +8576,13 @@
         <v>76</v>
       </c>
       <c r="C206" t="n">
-        <v>362.598071021596</v>
+        <v>363.872148120686</v>
       </c>
       <c r="D206" t="n">
-        <v>341.169935364873</v>
+        <v>341.284337792981</v>
       </c>
       <c r="E206" t="n">
-        <v>386.020310975023</v>
+        <v>386.190585779842</v>
       </c>
       <c r="F206" t="n">
         <v>2019</v>
@@ -8614,13 +8614,13 @@
         <v>77</v>
       </c>
       <c r="C207" t="n">
-        <v>124.999889499604</v>
+        <v>125.278041445318</v>
       </c>
       <c r="D207" t="n">
-        <v>113.638453676639</v>
+        <v>113.49876387833</v>
       </c>
       <c r="E207" t="n">
-        <v>137.792281024159</v>
+        <v>137.983566766051</v>
       </c>
       <c r="F207" t="n">
         <v>2019</v>
@@ -8652,13 +8652,13 @@
         <v>78</v>
       </c>
       <c r="C208" t="n">
-        <v>241.90707484618</v>
+        <v>241.542970338574</v>
       </c>
       <c r="D208" t="n">
-        <v>224.423688200029</v>
+        <v>224.095409757733</v>
       </c>
       <c r="E208" t="n">
-        <v>260.522848939332</v>
+        <v>259.856984152195</v>
       </c>
       <c r="F208" t="n">
         <v>2019</v>
@@ -8690,13 +8690,13 @@
         <v>79</v>
       </c>
       <c r="C209" t="n">
-        <v>173.587728783088</v>
+        <v>173.302554367655</v>
       </c>
       <c r="D209" t="n">
-        <v>158.887383336242</v>
+        <v>159.156402377663</v>
       </c>
       <c r="E209" t="n">
-        <v>189.473777617351</v>
+        <v>188.419662075871</v>
       </c>
       <c r="F209" t="n">
         <v>2019</v>
@@ -8728,13 +8728,13 @@
         <v>80</v>
       </c>
       <c r="C210" t="n">
-        <v>189.254629617975</v>
+        <v>188.90929104885</v>
       </c>
       <c r="D210" t="n">
-        <v>174.540402401572</v>
+        <v>173.389607387646</v>
       </c>
       <c r="E210" t="n">
-        <v>204.951825460222</v>
+        <v>204.336476605408</v>
       </c>
       <c r="F210" t="n">
         <v>2019</v>
@@ -8766,13 +8766,13 @@
         <v>81</v>
       </c>
       <c r="C211" t="n">
-        <v>209.069979203104</v>
+        <v>208.424022383841</v>
       </c>
       <c r="D211" t="n">
-        <v>194.399216349698</v>
+        <v>193.012130080534</v>
       </c>
       <c r="E211" t="n">
-        <v>224.234833462465</v>
+        <v>225.484082845043</v>
       </c>
       <c r="F211" t="n">
         <v>2019</v>
@@ -8804,13 +8804,13 @@
         <v>82</v>
       </c>
       <c r="C212" t="n">
-        <v>833.277931101865</v>
+        <v>832.25728062592</v>
       </c>
       <c r="D212" t="n">
-        <v>797.0198110252</v>
+        <v>794.479153007605</v>
       </c>
       <c r="E212" t="n">
-        <v>872.193704070271</v>
+        <v>871.680253990332</v>
       </c>
       <c r="F212" t="n">
         <v>2019</v>
@@ -8842,13 +8842,13 @@
         <v>83</v>
       </c>
       <c r="C213" t="n">
-        <v>104.262686756612</v>
+        <v>103.853633686238</v>
       </c>
       <c r="D213" t="n">
-        <v>94.0833789057541</v>
+        <v>93.9155585988694</v>
       </c>
       <c r="E213" t="n">
-        <v>115.313414345091</v>
+        <v>115.321395590319</v>
       </c>
       <c r="F213" t="n">
         <v>2019</v>
@@ -8880,13 +8880,13 @@
         <v>84</v>
       </c>
       <c r="C214" t="n">
-        <v>171.25322328475</v>
+        <v>172.200516024306</v>
       </c>
       <c r="D214" t="n">
-        <v>157.049842520105</v>
+        <v>157.362787250503</v>
       </c>
       <c r="E214" t="n">
-        <v>185.278000918344</v>
+        <v>187.873903105798</v>
       </c>
       <c r="F214" t="n">
         <v>2019</v>
@@ -8918,13 +8918,13 @@
         <v>85</v>
       </c>
       <c r="C215" t="n">
-        <v>149.060184738517</v>
+        <v>148.99119167853</v>
       </c>
       <c r="D215" t="n">
-        <v>135.672807289466</v>
+        <v>136.18417316477</v>
       </c>
       <c r="E215" t="n">
-        <v>162.892744037898</v>
+        <v>163.112484060593</v>
       </c>
       <c r="F215" t="n">
         <v>2019</v>
@@ -8956,13 +8956,13 @@
         <v>86</v>
       </c>
       <c r="C216" t="n">
-        <v>558.416086309508</v>
+        <v>555.280256898319</v>
       </c>
       <c r="D216" t="n">
-        <v>530.234272319268</v>
+        <v>525.27741291412</v>
       </c>
       <c r="E216" t="n">
-        <v>587.998350811196</v>
+        <v>587.560526719431</v>
       </c>
       <c r="F216" t="n">
         <v>2019</v>
@@ -8994,13 +8994,13 @@
         <v>87</v>
       </c>
       <c r="C217" t="n">
-        <v>46.5130909613585</v>
+        <v>45.8073336832575</v>
       </c>
       <c r="D217" t="n">
-        <v>40.1584288221875</v>
+        <v>39.2965137255207</v>
       </c>
       <c r="E217" t="n">
-        <v>53.3843842090279</v>
+        <v>52.5121797432195</v>
       </c>
       <c r="F217" t="n">
         <v>2019</v>
@@ -9032,13 +9032,13 @@
         <v>88</v>
       </c>
       <c r="C218" t="n">
-        <v>138.794557389035</v>
+        <v>138.275605194175</v>
       </c>
       <c r="D218" t="n">
-        <v>125.819532430659</v>
+        <v>125.661017747232</v>
       </c>
       <c r="E218" t="n">
-        <v>150.766376658612</v>
+        <v>153.246772163143</v>
       </c>
       <c r="F218" t="n">
         <v>2019</v>
@@ -9070,13 +9070,13 @@
         <v>89</v>
       </c>
       <c r="C219" t="n">
-        <v>190.709042344626</v>
+        <v>191.004571762246</v>
       </c>
       <c r="D219" t="n">
-        <v>175.405609365802</v>
+        <v>175.901878788048</v>
       </c>
       <c r="E219" t="n">
-        <v>206.158419816383</v>
+        <v>206.169559637908</v>
       </c>
       <c r="F219" t="n">
         <v>2019</v>
@@ -9108,13 +9108,13 @@
         <v>90</v>
       </c>
       <c r="C220" t="n">
-        <v>194.302885948255</v>
+        <v>194.192341361861</v>
       </c>
       <c r="D220" t="n">
-        <v>179.110139246826</v>
+        <v>179.499392589489</v>
       </c>
       <c r="E220" t="n">
-        <v>210.149657851523</v>
+        <v>211.618724917739</v>
       </c>
       <c r="F220" t="n">
         <v>2019</v>
@@ -9146,13 +9146,13 @@
         <v>91</v>
       </c>
       <c r="C221" t="n">
-        <v>663.393710814591</v>
+        <v>664.028599794193</v>
       </c>
       <c r="D221" t="n">
-        <v>633.790638994094</v>
+        <v>633.891130905938</v>
       </c>
       <c r="E221" t="n">
-        <v>695.222807932727</v>
+        <v>698.000398029305</v>
       </c>
       <c r="F221" t="n">
         <v>2019</v>
@@ -9184,13 +9184,13 @@
         <v>92</v>
       </c>
       <c r="C222" t="n">
-        <v>243.69586223733</v>
+        <v>242.576053307522</v>
       </c>
       <c r="D222" t="n">
-        <v>225.225693646767</v>
+        <v>225.153510226256</v>
       </c>
       <c r="E222" t="n">
-        <v>262.923638107464</v>
+        <v>262.604553802479</v>
       </c>
       <c r="F222" t="n">
         <v>2019</v>
@@ -9222,13 +9222,13 @@
         <v>93</v>
       </c>
       <c r="C223" t="n">
-        <v>69.7071597496626</v>
+        <v>69.8868382790165</v>
       </c>
       <c r="D223" t="n">
-        <v>61.7082294709914</v>
+        <v>61.4641035856263</v>
       </c>
       <c r="E223" t="n">
-        <v>79.0185332101211</v>
+        <v>78.7594052160787</v>
       </c>
       <c r="F223" t="n">
         <v>2019</v>
@@ -9260,13 +9260,13 @@
         <v>94</v>
       </c>
       <c r="C224" t="n">
-        <v>10.6066575256413</v>
+        <v>10.0726443269842</v>
       </c>
       <c r="D224" t="n">
-        <v>8.02177893257333</v>
+        <v>7.75254665344348</v>
       </c>
       <c r="E224" t="n">
-        <v>13.8410549699172</v>
+        <v>13.0113180139249</v>
       </c>
       <c r="F224" t="n">
         <v>2019</v>
@@ -9298,13 +9298,13 @@
         <v>95</v>
       </c>
       <c r="C225" t="n">
-        <v>106.86938916925</v>
+        <v>106.68398879984</v>
       </c>
       <c r="D225" t="n">
-        <v>96.2172445984327</v>
+        <v>96.4597421743861</v>
       </c>
       <c r="E225" t="n">
-        <v>118.071172108009</v>
+        <v>118.338417165103</v>
       </c>
       <c r="F225" t="n">
         <v>2019</v>
@@ -9336,13 +9336,13 @@
         <v>96</v>
       </c>
       <c r="C226" t="n">
-        <v>222.20872601812</v>
+        <v>221.42629987612</v>
       </c>
       <c r="D226" t="n">
-        <v>205.715774649869</v>
+        <v>205.123588757499</v>
       </c>
       <c r="E226" t="n">
-        <v>240.411969169757</v>
+        <v>238.685862419145</v>
       </c>
       <c r="F226" t="n">
         <v>2019</v>
@@ -9374,13 +9374,13 @@
         <v>97</v>
       </c>
       <c r="C227" t="n">
-        <v>244.047622613965</v>
+        <v>244.597073410845</v>
       </c>
       <c r="D227" t="n">
-        <v>225.970001338573</v>
+        <v>226.170196275656</v>
       </c>
       <c r="E227" t="n">
-        <v>262.450991753305</v>
+        <v>263.597101066514</v>
       </c>
       <c r="F227" t="n">
         <v>2019</v>
@@ -9412,13 +9412,13 @@
         <v>98</v>
       </c>
       <c r="C228" t="n">
-        <v>152.504313582703</v>
+        <v>152.404197982473</v>
       </c>
       <c r="D228" t="n">
-        <v>139.761251862668</v>
+        <v>139.759758768141</v>
       </c>
       <c r="E228" t="n">
-        <v>166.978258933377</v>
+        <v>166.366783635448</v>
       </c>
       <c r="F228" t="n">
         <v>2019</v>
@@ -9450,13 +9450,13 @@
         <v>99</v>
       </c>
       <c r="C229" t="n">
-        <v>172.219757175338</v>
+        <v>171.080660482379</v>
       </c>
       <c r="D229" t="n">
-        <v>158.60277898619</v>
+        <v>156.932438548933</v>
       </c>
       <c r="E229" t="n">
-        <v>185.932080953084</v>
+        <v>186.337450164694</v>
       </c>
       <c r="F229" t="n">
         <v>2019</v>
@@ -9488,13 +9488,13 @@
         <v>100</v>
       </c>
       <c r="C230" t="n">
-        <v>61.5466150369236</v>
+        <v>61.8446444355747</v>
       </c>
       <c r="D230" t="n">
-        <v>54.3612909864985</v>
+        <v>53.2847130821374</v>
       </c>
       <c r="E230" t="n">
-        <v>69.8205541937061</v>
+        <v>70.0217938505248</v>
       </c>
       <c r="F230" t="n">
         <v>2019</v>
@@ -9526,13 +9526,13 @@
         <v>101</v>
       </c>
       <c r="C231" t="n">
-        <v>725.966680042201</v>
+        <v>725.475352214436</v>
       </c>
       <c r="D231" t="n">
-        <v>693.194556765353</v>
+        <v>691.649728299646</v>
       </c>
       <c r="E231" t="n">
-        <v>759.194095008099</v>
+        <v>763.591995217661</v>
       </c>
       <c r="F231" t="n">
         <v>2019</v>
@@ -9564,13 +9564,13 @@
         <v>102</v>
       </c>
       <c r="C232" t="n">
-        <v>416.742599507385</v>
+        <v>415.83213588306</v>
       </c>
       <c r="D232" t="n">
-        <v>393.877290155721</v>
+        <v>392.390300062414</v>
       </c>
       <c r="E232" t="n">
-        <v>440.094411761071</v>
+        <v>441.499834360125</v>
       </c>
       <c r="F232" t="n">
         <v>2019</v>
@@ -9602,13 +9602,13 @@
         <v>103</v>
       </c>
       <c r="C233" t="n">
-        <v>125.802856405524</v>
+        <v>125.117376308014</v>
       </c>
       <c r="D233" t="n">
-        <v>113.755807758594</v>
+        <v>113.764297695988</v>
       </c>
       <c r="E233" t="n">
-        <v>137.82456519158</v>
+        <v>137.918603612441</v>
       </c>
       <c r="F233" t="n">
         <v>2019</v>
@@ -9640,13 +9640,13 @@
         <v>104</v>
       </c>
       <c r="C234" t="n">
-        <v>199.215633719546</v>
+        <v>199.341020751138</v>
       </c>
       <c r="D234" t="n">
-        <v>184.192125637725</v>
+        <v>184.037953257213</v>
       </c>
       <c r="E234" t="n">
-        <v>215.57847261873</v>
+        <v>216.04996585111</v>
       </c>
       <c r="F234" t="n">
         <v>2019</v>
@@ -9678,13 +9678,13 @@
         <v>105</v>
       </c>
       <c r="C235" t="n">
-        <v>1961.9541915407</v>
+        <v>1961.72552575676</v>
       </c>
       <c r="D235" t="n">
-        <v>1895.60768067507</v>
+        <v>1890.88308956558</v>
       </c>
       <c r="E235" t="n">
-        <v>2028.26755285134</v>
+        <v>2028.51565484116</v>
       </c>
       <c r="F235" t="n">
         <v>2019</v>
@@ -9716,13 +9716,13 @@
         <v>106</v>
       </c>
       <c r="C236" t="n">
-        <v>151.114406714586</v>
+        <v>151.453704414365</v>
       </c>
       <c r="D236" t="n">
-        <v>137.823294339909</v>
+        <v>137.550588247622</v>
       </c>
       <c r="E236" t="n">
-        <v>166.612135806711</v>
+        <v>167.227750245032</v>
       </c>
       <c r="F236" t="n">
         <v>2019</v>
@@ -9754,13 +9754,13 @@
         <v>107</v>
       </c>
       <c r="C237" t="n">
-        <v>179.159036577145</v>
+        <v>178.946488007376</v>
       </c>
       <c r="D237" t="n">
-        <v>163.949374730593</v>
+        <v>164.141417977207</v>
       </c>
       <c r="E237" t="n">
-        <v>195.419029262594</v>
+        <v>193.915346727684</v>
       </c>
       <c r="F237" t="n">
         <v>2019</v>
@@ -9792,13 +9792,13 @@
         <v>108</v>
       </c>
       <c r="C238" t="n">
-        <v>71.2514013089888</v>
+        <v>71.2723190662699</v>
       </c>
       <c r="D238" t="n">
-        <v>62.9742192196405</v>
+        <v>62.9825902987418</v>
       </c>
       <c r="E238" t="n">
-        <v>80.1465350056059</v>
+        <v>80.8015479469693</v>
       </c>
       <c r="F238" t="n">
         <v>2019</v>
@@ -9830,13 +9830,13 @@
         <v>109</v>
       </c>
       <c r="C239" t="n">
-        <v>248.763550191454</v>
+        <v>249.354995630133</v>
       </c>
       <c r="D239" t="n">
-        <v>231.438602464437</v>
+        <v>231.960716882792</v>
       </c>
       <c r="E239" t="n">
-        <v>267.527250959111</v>
+        <v>268.946635856604</v>
       </c>
       <c r="F239" t="n">
         <v>2019</v>
@@ -9868,13 +9868,13 @@
         <v>110</v>
       </c>
       <c r="C240" t="n">
-        <v>333.64656431077</v>
+        <v>333.54175659195</v>
       </c>
       <c r="D240" t="n">
-        <v>313.039566701275</v>
+        <v>311.313153548252</v>
       </c>
       <c r="E240" t="n">
-        <v>355.562057801649</v>
+        <v>355.513563527967</v>
       </c>
       <c r="F240" t="n">
         <v>2019</v>
@@ -9906,13 +9906,13 @@
         <v>111</v>
       </c>
       <c r="C241" t="n">
-        <v>65.8607739354086</v>
+        <v>65.0984043384329</v>
       </c>
       <c r="D241" t="n">
-        <v>58.1855269996415</v>
+        <v>56.5456409899546</v>
       </c>
       <c r="E241" t="n">
-        <v>74.4501491640205</v>
+        <v>73.3471552102647</v>
       </c>
       <c r="F241" t="n">
         <v>2019</v>
@@ -9944,13 +9944,13 @@
         <v>112</v>
       </c>
       <c r="C242" t="n">
-        <v>176.115204958579</v>
+        <v>175.541655864185</v>
       </c>
       <c r="D242" t="n">
-        <v>160.479020945144</v>
+        <v>160.472855369242</v>
       </c>
       <c r="E242" t="n">
-        <v>190.866009052362</v>
+        <v>191.319189470673</v>
       </c>
       <c r="F242" t="n">
         <v>2019</v>
@@ -9982,13 +9982,13 @@
         <v>113</v>
       </c>
       <c r="C243" t="n">
-        <v>192.359611032991</v>
+        <v>192.021344807872</v>
       </c>
       <c r="D243" t="n">
-        <v>176.842047869001</v>
+        <v>175.299721229044</v>
       </c>
       <c r="E243" t="n">
-        <v>208.295785690338</v>
+        <v>209.673757908054</v>
       </c>
       <c r="F243" t="n">
         <v>2019</v>
@@ -10020,13 +10020,13 @@
         <v>114</v>
       </c>
       <c r="C244" t="n">
-        <v>405.500162856254</v>
+        <v>406.173195686612</v>
       </c>
       <c r="D244" t="n">
-        <v>380.95035780728</v>
+        <v>380.441851331612</v>
       </c>
       <c r="E244" t="n">
-        <v>431.785065090231</v>
+        <v>430.959000545942</v>
       </c>
       <c r="F244" t="n">
         <v>2019</v>
@@ -10058,13 +10058,13 @@
         <v>115</v>
       </c>
       <c r="C245" t="n">
-        <v>188.544831057994</v>
+        <v>188.186644219454</v>
       </c>
       <c r="D245" t="n">
-        <v>173.110769631798</v>
+        <v>172.701250705321</v>
       </c>
       <c r="E245" t="n">
-        <v>204.262697072725</v>
+        <v>203.725548578868</v>
       </c>
       <c r="F245" t="n">
         <v>2019</v>
@@ -10096,13 +10096,13 @@
         <v>116</v>
       </c>
       <c r="C246" t="n">
-        <v>47.7552110878456</v>
+        <v>47.9235234010357</v>
       </c>
       <c r="D246" t="n">
-        <v>41.034888214981</v>
+        <v>41.4686566674447</v>
       </c>
       <c r="E246" t="n">
-        <v>55.1158692937684</v>
+        <v>55.5342110259033</v>
       </c>
       <c r="F246" t="n">
         <v>2019</v>
@@ -10134,13 +10134,13 @@
         <v>117</v>
       </c>
       <c r="C247" t="n">
-        <v>78.3958141495339</v>
+        <v>78.7008132510864</v>
       </c>
       <c r="D247" t="n">
-        <v>69.1003294111772</v>
+        <v>69.5616451305173</v>
       </c>
       <c r="E247" t="n">
-        <v>89.5135942263474</v>
+        <v>89.1121530332319</v>
       </c>
       <c r="F247" t="n">
         <v>2019</v>
@@ -10172,13 +10172,13 @@
         <v>118</v>
       </c>
       <c r="C248" t="n">
-        <v>255.091333577551</v>
+        <v>254.107313596482</v>
       </c>
       <c r="D248" t="n">
-        <v>236.256375427563</v>
+        <v>236.67549259607</v>
       </c>
       <c r="E248" t="n">
-        <v>273.651699126333</v>
+        <v>274.221499836693</v>
       </c>
       <c r="F248" t="n">
         <v>2019</v>
@@ -10210,13 +10210,13 @@
         <v>119</v>
       </c>
       <c r="C249" t="n">
-        <v>52.8221454380231</v>
+        <v>53.0575226089169</v>
       </c>
       <c r="D249" t="n">
-        <v>46.4013956419793</v>
+        <v>45.9091570371663</v>
       </c>
       <c r="E249" t="n">
-        <v>60.0525414221328</v>
+        <v>60.6543731095889</v>
       </c>
       <c r="F249" t="n">
         <v>2019</v>
@@ -10248,13 +10248,13 @@
         <v>120</v>
       </c>
       <c r="C250" t="n">
-        <v>161.220422361464</v>
+        <v>161.021449658019</v>
       </c>
       <c r="D250" t="n">
-        <v>146.711366788283</v>
+        <v>147.176988377573</v>
       </c>
       <c r="E250" t="n">
-        <v>175.721237275317</v>
+        <v>175.807821057448</v>
       </c>
       <c r="F250" t="n">
         <v>2019</v>
@@ -10286,13 +10286,13 @@
         <v>122</v>
       </c>
       <c r="C251" t="n">
-        <v>366.480125047646</v>
+        <v>366.457374286096</v>
       </c>
       <c r="D251" t="n">
-        <v>344.955720559093</v>
+        <v>343.309188451877</v>
       </c>
       <c r="E251" t="n">
-        <v>390.280168097412</v>
+        <v>391.137546623355</v>
       </c>
       <c r="F251" t="n">
         <v>2019</v>
@@ -10324,13 +10324,13 @@
         <v>123</v>
       </c>
       <c r="C252" t="n">
-        <v>805.362248247267</v>
+        <v>806.516553706294</v>
       </c>
       <c r="D252" t="n">
-        <v>770.478003081285</v>
+        <v>770.292490471717</v>
       </c>
       <c r="E252" t="n">
-        <v>841.912430144216</v>
+        <v>846.955189515047</v>
       </c>
       <c r="F252" t="n">
         <v>2019</v>
@@ -10362,13 +10362,13 @@
         <v>124</v>
       </c>
       <c r="C253" t="n">
-        <v>853.741719757439</v>
+        <v>853.546159017421</v>
       </c>
       <c r="D253" t="n">
-        <v>815.215610609996</v>
+        <v>815.094081956354</v>
       </c>
       <c r="E253" t="n">
-        <v>891.002806086205</v>
+        <v>892.869045222381</v>
       </c>
       <c r="F253" t="n">
         <v>2019</v>
@@ -10400,13 +10400,13 @@
         <v>125</v>
       </c>
       <c r="C254" t="n">
-        <v>2209.32818301834</v>
+        <v>2208.21103693746</v>
       </c>
       <c r="D254" t="n">
-        <v>2142.57833811441</v>
+        <v>2130.71551748692</v>
       </c>
       <c r="E254" t="n">
-        <v>2277.86861960859</v>
+        <v>2294.10353337009</v>
       </c>
       <c r="F254" t="n">
         <v>2019</v>
@@ -10438,13 +10438,13 @@
         <v>126</v>
       </c>
       <c r="C255" t="n">
-        <v>387.959223403096</v>
+        <v>386.813667035483</v>
       </c>
       <c r="D255" t="n">
-        <v>363.588567170512</v>
+        <v>363.278224522391</v>
       </c>
       <c r="E255" t="n">
-        <v>410.465543503973</v>
+        <v>409.832118797</v>
       </c>
       <c r="F255" t="n">
         <v>2019</v>
@@ -10476,13 +10476,13 @@
         <v>127</v>
       </c>
       <c r="C256" t="n">
-        <v>266.208919422785</v>
+        <v>264.757099618857</v>
       </c>
       <c r="D256" t="n">
-        <v>247.275802034515</v>
+        <v>244.862887281366</v>
       </c>
       <c r="E256" t="n">
-        <v>284.08260531288</v>
+        <v>283.713948266671</v>
       </c>
       <c r="F256" t="n">
         <v>2019</v>
@@ -10514,13 +10514,13 @@
         <v>128</v>
       </c>
       <c r="C257" t="n">
-        <v>334.801432757063</v>
+        <v>334.784273433775</v>
       </c>
       <c r="D257" t="n">
-        <v>312.451472328796</v>
+        <v>314.324628898291</v>
       </c>
       <c r="E257" t="n">
-        <v>357.956177513614</v>
+        <v>357.067257520379</v>
       </c>
       <c r="F257" t="n">
         <v>2019</v>
@@ -10552,13 +10552,13 @@
         <v>129</v>
       </c>
       <c r="C258" t="n">
-        <v>151.82090625628</v>
+        <v>151.237469684345</v>
       </c>
       <c r="D258" t="n">
-        <v>138.079428987711</v>
+        <v>137.685662564328</v>
       </c>
       <c r="E258" t="n">
-        <v>164.925105220122</v>
+        <v>164.55617479996</v>
       </c>
       <c r="F258" t="n">
         <v>2019</v>
@@ -10590,13 +10590,13 @@
         <v>130</v>
       </c>
       <c r="C259" t="n">
-        <v>149.285868139646</v>
+        <v>149.598709426886</v>
       </c>
       <c r="D259" t="n">
-        <v>136.260256900408</v>
+        <v>135.018888277993</v>
       </c>
       <c r="E259" t="n">
-        <v>163.049359820132</v>
+        <v>164.174293487999</v>
       </c>
       <c r="F259" t="n">
         <v>2019</v>
@@ -10628,13 +10628,13 @@
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>51.5890629512316</v>
+        <v>50.3007223735907</v>
       </c>
       <c r="D260" t="n">
-        <v>44.4201783197658</v>
+        <v>43.7263596363498</v>
       </c>
       <c r="E260" t="n">
-        <v>59.9127931064252</v>
+        <v>59.6428692587451</v>
       </c>
       <c r="F260" t="n">
         <v>2020</v>
@@ -10666,13 +10666,13 @@
         <v>2</v>
       </c>
       <c r="C261" t="n">
-        <v>86.0459511858887</v>
+        <v>86.1246014307196</v>
       </c>
       <c r="D261" t="n">
-        <v>76.0500201747078</v>
+        <v>76.2147684627643</v>
       </c>
       <c r="E261" t="n">
-        <v>96.0417070713234</v>
+        <v>96.7445489231933</v>
       </c>
       <c r="F261" t="n">
         <v>2020</v>
@@ -10704,13 +10704,13 @@
         <v>3</v>
       </c>
       <c r="C262" t="n">
-        <v>97.9171662430068</v>
+        <v>98.4781766527976</v>
       </c>
       <c r="D262" t="n">
-        <v>88.2925393476431</v>
+        <v>88.5826688293025</v>
       </c>
       <c r="E262" t="n">
-        <v>109.303427370673</v>
+        <v>109.646176506559</v>
       </c>
       <c r="F262" t="n">
         <v>2020</v>
@@ -10742,13 +10742,13 @@
         <v>4</v>
       </c>
       <c r="C263" t="n">
-        <v>1807.34446774575</v>
+        <v>1806.16389222531</v>
       </c>
       <c r="D263" t="n">
-        <v>1750.9484695632</v>
+        <v>1747.95616647929</v>
       </c>
       <c r="E263" t="n">
-        <v>1865.9653013737</v>
+        <v>1872.94488012077</v>
       </c>
       <c r="F263" t="n">
         <v>2020</v>
@@ -10780,13 +10780,13 @@
         <v>5</v>
       </c>
       <c r="C264" t="n">
-        <v>257.73258268552</v>
+        <v>258.425792742655</v>
       </c>
       <c r="D264" t="n">
-        <v>239.541316972735</v>
+        <v>241.156114251166</v>
       </c>
       <c r="E264" t="n">
-        <v>276.292086404889</v>
+        <v>277.973308349064</v>
       </c>
       <c r="F264" t="n">
         <v>2020</v>
@@ -10818,13 +10818,13 @@
         <v>6</v>
       </c>
       <c r="C265" t="n">
-        <v>1175.25744150136</v>
+        <v>1174.82714890832</v>
       </c>
       <c r="D265" t="n">
-        <v>1129.96459671202</v>
+        <v>1130.03833839807</v>
       </c>
       <c r="E265" t="n">
-        <v>1215.97048778802</v>
+        <v>1219.67113926425</v>
       </c>
       <c r="F265" t="n">
         <v>2020</v>
@@ -10856,13 +10856,13 @@
         <v>7</v>
       </c>
       <c r="C266" t="n">
-        <v>507.514717950673</v>
+        <v>507.822689282704</v>
       </c>
       <c r="D266" t="n">
-        <v>481.303078474102</v>
+        <v>481.085498806968</v>
       </c>
       <c r="E266" t="n">
-        <v>534.070305638296</v>
+        <v>536.062981497998</v>
       </c>
       <c r="F266" t="n">
         <v>2020</v>
@@ -10894,13 +10894,13 @@
         <v>8</v>
       </c>
       <c r="C267" t="n">
-        <v>77.5231470484138</v>
+        <v>78.3965271026367</v>
       </c>
       <c r="D267" t="n">
-        <v>69.2866704117791</v>
+        <v>69.4321067694564</v>
       </c>
       <c r="E267" t="n">
-        <v>86.1626323826257</v>
+        <v>88.4136471649083</v>
       </c>
       <c r="F267" t="n">
         <v>2020</v>
@@ -10932,13 +10932,13 @@
         <v>9</v>
       </c>
       <c r="C268" t="n">
-        <v>134.400115981028</v>
+        <v>133.9534673476</v>
       </c>
       <c r="D268" t="n">
-        <v>122.209920252093</v>
+        <v>121.757320571842</v>
       </c>
       <c r="E268" t="n">
-        <v>148.640386684361</v>
+        <v>147.271356144958</v>
       </c>
       <c r="F268" t="n">
         <v>2020</v>
@@ -10970,13 +10970,13 @@
         <v>10</v>
       </c>
       <c r="C269" t="n">
-        <v>96.996997214181</v>
+        <v>96.9771817684119</v>
       </c>
       <c r="D269" t="n">
-        <v>86.4071634548767</v>
+        <v>87.4190292534307</v>
       </c>
       <c r="E269" t="n">
-        <v>108.509425525088</v>
+        <v>108.625957613083</v>
       </c>
       <c r="F269" t="n">
         <v>2020</v>
@@ -11008,13 +11008,13 @@
         <v>11</v>
       </c>
       <c r="C270" t="n">
-        <v>207.758778607994</v>
+        <v>206.597135125969</v>
       </c>
       <c r="D270" t="n">
-        <v>191.76047311641</v>
+        <v>191.647719079471</v>
       </c>
       <c r="E270" t="n">
-        <v>223.176339263472</v>
+        <v>223.82880159884</v>
       </c>
       <c r="F270" t="n">
         <v>2020</v>
@@ -11046,13 +11046,13 @@
         <v>12</v>
       </c>
       <c r="C271" t="n">
-        <v>237.536592356376</v>
+        <v>237.384697820547</v>
       </c>
       <c r="D271" t="n">
-        <v>220.75614538171</v>
+        <v>220.768959094383</v>
       </c>
       <c r="E271" t="n">
-        <v>253.807755888584</v>
+        <v>254.686452943129</v>
       </c>
       <c r="F271" t="n">
         <v>2020</v>
@@ -11084,13 +11084,13 @@
         <v>13</v>
       </c>
       <c r="C272" t="n">
-        <v>96.1661978197514</v>
+        <v>96.3887235959031</v>
       </c>
       <c r="D272" t="n">
-        <v>86.0973692311895</v>
+        <v>85.9960982875509</v>
       </c>
       <c r="E272" t="n">
-        <v>107.145808485304</v>
+        <v>107.451775981082</v>
       </c>
       <c r="F272" t="n">
         <v>2020</v>
@@ -11122,13 +11122,13 @@
         <v>14</v>
       </c>
       <c r="C273" t="n">
-        <v>34.6732587214141</v>
+        <v>34.2925982908784</v>
       </c>
       <c r="D273" t="n">
-        <v>29.346515991499</v>
+        <v>29.2074114484232</v>
       </c>
       <c r="E273" t="n">
-        <v>40.4489061478338</v>
+        <v>40.3012573349408</v>
       </c>
       <c r="F273" t="n">
         <v>2020</v>
@@ -11160,13 +11160,13 @@
         <v>15</v>
       </c>
       <c r="C274" t="n">
-        <v>159.718093751978</v>
+        <v>158.167199728383</v>
       </c>
       <c r="D274" t="n">
-        <v>145.98813908608</v>
+        <v>144.474264548532</v>
       </c>
       <c r="E274" t="n">
-        <v>173.066235307718</v>
+        <v>171.722149991934</v>
       </c>
       <c r="F274" t="n">
         <v>2020</v>
@@ -11198,13 +11198,13 @@
         <v>16</v>
       </c>
       <c r="C275" t="n">
-        <v>191.22209241705</v>
+        <v>191.900529066281</v>
       </c>
       <c r="D275" t="n">
-        <v>175.760325498608</v>
+        <v>177.259227127937</v>
       </c>
       <c r="E275" t="n">
-        <v>207.717468968773</v>
+        <v>208.319276246133</v>
       </c>
       <c r="F275" t="n">
         <v>2020</v>
@@ -11236,13 +11236,13 @@
         <v>17</v>
       </c>
       <c r="C276" t="n">
-        <v>186.534899770525</v>
+        <v>185.76123082114</v>
       </c>
       <c r="D276" t="n">
-        <v>171.25537061091</v>
+        <v>170.626714255002</v>
       </c>
       <c r="E276" t="n">
-        <v>202.876369447967</v>
+        <v>202.575613128414</v>
       </c>
       <c r="F276" t="n">
         <v>2020</v>
@@ -11274,13 +11274,13 @@
         <v>18</v>
       </c>
       <c r="C277" t="n">
-        <v>43.4879211444776</v>
+        <v>43.4613223159664</v>
       </c>
       <c r="D277" t="n">
-        <v>37.3537840809025</v>
+        <v>37.5374859170669</v>
       </c>
       <c r="E277" t="n">
-        <v>50.2872590535423</v>
+        <v>50.637237474589</v>
       </c>
       <c r="F277" t="n">
         <v>2020</v>
@@ -11312,13 +11312,13 @@
         <v>19</v>
       </c>
       <c r="C278" t="n">
-        <v>272.433365049174</v>
+        <v>272.878228729272</v>
       </c>
       <c r="D278" t="n">
-        <v>253.827126217873</v>
+        <v>253.655465397319</v>
       </c>
       <c r="E278" t="n">
-        <v>290.35747454236</v>
+        <v>291.554903301471</v>
       </c>
       <c r="F278" t="n">
         <v>2020</v>
@@ -11350,13 +11350,13 @@
         <v>20</v>
       </c>
       <c r="C279" t="n">
-        <v>126.820866818606</v>
+        <v>127.444639450665</v>
       </c>
       <c r="D279" t="n">
-        <v>114.734875209808</v>
+        <v>115.807121563009</v>
       </c>
       <c r="E279" t="n">
-        <v>139.722193576706</v>
+        <v>139.557124967506</v>
       </c>
       <c r="F279" t="n">
         <v>2020</v>
@@ -11388,13 +11388,13 @@
         <v>21</v>
       </c>
       <c r="C280" t="n">
-        <v>146.111901998817</v>
+        <v>147.278667014554</v>
       </c>
       <c r="D280" t="n">
-        <v>132.740323454312</v>
+        <v>133.389203191503</v>
       </c>
       <c r="E280" t="n">
-        <v>159.157976571946</v>
+        <v>160.97003678393</v>
       </c>
       <c r="F280" t="n">
         <v>2020</v>
@@ -11426,13 +11426,13 @@
         <v>22</v>
       </c>
       <c r="C281" t="n">
-        <v>418.247851395749</v>
+        <v>417.977769590771</v>
       </c>
       <c r="D281" t="n">
-        <v>394.028778515418</v>
+        <v>392.770310354949</v>
       </c>
       <c r="E281" t="n">
-        <v>439.395026262311</v>
+        <v>443.625989814445</v>
       </c>
       <c r="F281" t="n">
         <v>2020</v>
@@ -11464,13 +11464,13 @@
         <v>23</v>
       </c>
       <c r="C282" t="n">
-        <v>262.162639648994</v>
+        <v>262.076462568415</v>
       </c>
       <c r="D282" t="n">
-        <v>244.671230221945</v>
+        <v>242.132189512946</v>
       </c>
       <c r="E282" t="n">
-        <v>280.262821829454</v>
+        <v>282.049442862925</v>
       </c>
       <c r="F282" t="n">
         <v>2020</v>
@@ -11502,13 +11502,13 @@
         <v>24</v>
       </c>
       <c r="C283" t="n">
-        <v>283.964425901824</v>
+        <v>284.686063811715</v>
       </c>
       <c r="D283" t="n">
-        <v>266.867555142952</v>
+        <v>266.432515843445</v>
       </c>
       <c r="E283" t="n">
-        <v>303.068109403628</v>
+        <v>304.975992789711</v>
       </c>
       <c r="F283" t="n">
         <v>2020</v>
@@ -11540,13 +11540,13 @@
         <v>25</v>
       </c>
       <c r="C284" t="n">
-        <v>261.037256847286</v>
+        <v>261.752313016342</v>
       </c>
       <c r="D284" t="n">
-        <v>244.448451045308</v>
+        <v>243.401210112422</v>
       </c>
       <c r="E284" t="n">
-        <v>279.87495333707</v>
+        <v>280.207714855317</v>
       </c>
       <c r="F284" t="n">
         <v>2020</v>
@@ -11578,13 +11578,13 @@
         <v>26</v>
       </c>
       <c r="C285" t="n">
-        <v>158.808350467045</v>
+        <v>159.329043045198</v>
       </c>
       <c r="D285" t="n">
-        <v>145.04563495951</v>
+        <v>144.782709118794</v>
       </c>
       <c r="E285" t="n">
-        <v>173.422705158488</v>
+        <v>172.023357111916</v>
       </c>
       <c r="F285" t="n">
         <v>2020</v>
@@ -11616,13 +11616,13 @@
         <v>27</v>
       </c>
       <c r="C286" t="n">
-        <v>52.123288459177</v>
+        <v>52.6891157206133</v>
       </c>
       <c r="D286" t="n">
-        <v>45.2042676777573</v>
+        <v>45.6727183945017</v>
       </c>
       <c r="E286" t="n">
-        <v>59.8972262584251</v>
+        <v>59.7787805783318</v>
       </c>
       <c r="F286" t="n">
         <v>2020</v>
@@ -11654,13 +11654,13 @@
         <v>28</v>
       </c>
       <c r="C287" t="n">
-        <v>115.398081598397</v>
+        <v>114.53215498891</v>
       </c>
       <c r="D287" t="n">
-        <v>104.184202258999</v>
+        <v>103.668745950365</v>
       </c>
       <c r="E287" t="n">
-        <v>126.642512620432</v>
+        <v>126.399423766303</v>
       </c>
       <c r="F287" t="n">
         <v>2020</v>
@@ -11692,13 +11692,13 @@
         <v>29</v>
       </c>
       <c r="C288" t="n">
-        <v>62.4755661202808</v>
+        <v>62.1110465275764</v>
       </c>
       <c r="D288" t="n">
-        <v>54.5041635238656</v>
+        <v>54.5327447979705</v>
       </c>
       <c r="E288" t="n">
-        <v>70.0588341917</v>
+        <v>71.0222183856519</v>
       </c>
       <c r="F288" t="n">
         <v>2020</v>
@@ -11730,13 +11730,13 @@
         <v>30</v>
       </c>
       <c r="C289" t="n">
-        <v>549.488478279644</v>
+        <v>549.368372597634</v>
       </c>
       <c r="D289" t="n">
-        <v>520.831189378956</v>
+        <v>522.023343406409</v>
       </c>
       <c r="E289" t="n">
-        <v>577.095877797935</v>
+        <v>578.202596726096</v>
       </c>
       <c r="F289" t="n">
         <v>2020</v>
@@ -11768,13 +11768,13 @@
         <v>31</v>
       </c>
       <c r="C290" t="n">
-        <v>228.089392151158</v>
+        <v>228.610397005747</v>
       </c>
       <c r="D290" t="n">
-        <v>211.617192919122</v>
+        <v>213.192988865496</v>
       </c>
       <c r="E290" t="n">
-        <v>244.64539478634</v>
+        <v>245.815071061218</v>
       </c>
       <c r="F290" t="n">
         <v>2020</v>
@@ -11806,13 +11806,13 @@
         <v>32</v>
       </c>
       <c r="C291" t="n">
-        <v>125.995078210282</v>
+        <v>125.758280616098</v>
       </c>
       <c r="D291" t="n">
-        <v>114.787133050598</v>
+        <v>112.554347706994</v>
       </c>
       <c r="E291" t="n">
-        <v>139.051871607194</v>
+        <v>139.168992225401</v>
       </c>
       <c r="F291" t="n">
         <v>2020</v>
@@ -11844,13 +11844,13 @@
         <v>33</v>
       </c>
       <c r="C292" t="n">
-        <v>309.93599683904</v>
+        <v>309.340850600169</v>
       </c>
       <c r="D292" t="n">
-        <v>290.371989707573</v>
+        <v>290.530902620562</v>
       </c>
       <c r="E292" t="n">
-        <v>329.293207211573</v>
+        <v>330.059456266629</v>
       </c>
       <c r="F292" t="n">
         <v>2020</v>
@@ -11882,13 +11882,13 @@
         <v>34</v>
       </c>
       <c r="C293" t="n">
-        <v>61.3163664192658</v>
+        <v>61.184206603055</v>
       </c>
       <c r="D293" t="n">
-        <v>53.4058543601791</v>
+        <v>53.961980967223</v>
       </c>
       <c r="E293" t="n">
-        <v>69.0312489616828</v>
+        <v>69.6256843990435</v>
       </c>
       <c r="F293" t="n">
         <v>2020</v>
@@ -11920,13 +11920,13 @@
         <v>35</v>
       </c>
       <c r="C294" t="n">
-        <v>285.758904244133</v>
+        <v>285.492741265824</v>
       </c>
       <c r="D294" t="n">
-        <v>268.194181127742</v>
+        <v>266.191672033656</v>
       </c>
       <c r="E294" t="n">
-        <v>305.145073771791</v>
+        <v>304.506441350918</v>
       </c>
       <c r="F294" t="n">
         <v>2020</v>
@@ -11958,13 +11958,13 @@
         <v>36</v>
       </c>
       <c r="C295" t="n">
-        <v>61.3308102073651</v>
+        <v>61.2825484996441</v>
       </c>
       <c r="D295" t="n">
-        <v>53.993107198442</v>
+        <v>52.9370378343221</v>
       </c>
       <c r="E295" t="n">
-        <v>70.1538181972831</v>
+        <v>69.2604522201522</v>
       </c>
       <c r="F295" t="n">
         <v>2020</v>
@@ -11996,13 +11996,13 @@
         <v>37</v>
       </c>
       <c r="C296" t="n">
-        <v>507.814012878831</v>
+        <v>507.126322231837</v>
       </c>
       <c r="D296" t="n">
-        <v>482.088808322454</v>
+        <v>479.821925733713</v>
       </c>
       <c r="E296" t="n">
-        <v>534.207900962081</v>
+        <v>535.281950050031</v>
       </c>
       <c r="F296" t="n">
         <v>2020</v>
@@ -12034,13 +12034,13 @@
         <v>38</v>
       </c>
       <c r="C297" t="n">
-        <v>245.903272935539</v>
+        <v>245.919067938768</v>
       </c>
       <c r="D297" t="n">
-        <v>228.515162922831</v>
+        <v>227.915973697113</v>
       </c>
       <c r="E297" t="n">
-        <v>264.024878412415</v>
+        <v>264.447008263763</v>
       </c>
       <c r="F297" t="n">
         <v>2020</v>
@@ -12072,13 +12072,13 @@
         <v>39</v>
       </c>
       <c r="C298" t="n">
-        <v>334.26200733413</v>
+        <v>333.755958478068</v>
       </c>
       <c r="D298" t="n">
-        <v>314.227180807999</v>
+        <v>311.90608697203</v>
       </c>
       <c r="E298" t="n">
-        <v>356.222530772452</v>
+        <v>355.514373547663</v>
       </c>
       <c r="F298" t="n">
         <v>2020</v>
@@ -12110,13 +12110,13 @@
         <v>40</v>
       </c>
       <c r="C299" t="n">
-        <v>357.107770437826</v>
+        <v>357.906659080408</v>
       </c>
       <c r="D299" t="n">
-        <v>336.288097752274</v>
+        <v>336.442947353559</v>
       </c>
       <c r="E299" t="n">
-        <v>377.193102095305</v>
+        <v>381.342152443372</v>
       </c>
       <c r="F299" t="n">
         <v>2020</v>
@@ -12148,13 +12148,13 @@
         <v>41</v>
       </c>
       <c r="C300" t="n">
-        <v>42.3734173410618</v>
+        <v>42.2577980790234</v>
       </c>
       <c r="D300" t="n">
-        <v>36.6982386225561</v>
+        <v>36.1695769973433</v>
       </c>
       <c r="E300" t="n">
-        <v>48.9673018012702</v>
+        <v>49.1300865990957</v>
       </c>
       <c r="F300" t="n">
         <v>2020</v>
@@ -12186,13 +12186,13 @@
         <v>42</v>
       </c>
       <c r="C301" t="n">
-        <v>23.2885772657372</v>
+        <v>22.8067885014645</v>
       </c>
       <c r="D301" t="n">
-        <v>19.6018328415655</v>
+        <v>18.8452918080387</v>
       </c>
       <c r="E301" t="n">
-        <v>28.0184578375301</v>
+        <v>27.3087775559057</v>
       </c>
       <c r="F301" t="n">
         <v>2020</v>
@@ -12224,13 +12224,13 @@
         <v>43</v>
       </c>
       <c r="C302" t="n">
-        <v>204.286515477086</v>
+        <v>203.399316099076</v>
       </c>
       <c r="D302" t="n">
-        <v>188.926443680019</v>
+        <v>187.55114354673</v>
       </c>
       <c r="E302" t="n">
-        <v>220.238116093973</v>
+        <v>220.130831938311</v>
       </c>
       <c r="F302" t="n">
         <v>2020</v>
@@ -12262,13 +12262,13 @@
         <v>44</v>
       </c>
       <c r="C303" t="n">
-        <v>52.8202778062966</v>
+        <v>53.1336896753167</v>
       </c>
       <c r="D303" t="n">
-        <v>45.3350650140796</v>
+        <v>45.9445700508407</v>
       </c>
       <c r="E303" t="n">
-        <v>60.4651262222497</v>
+        <v>61.6408935407026</v>
       </c>
       <c r="F303" t="n">
         <v>2020</v>
@@ -12300,13 +12300,13 @@
         <v>45</v>
       </c>
       <c r="C304" t="n">
-        <v>154.25163993</v>
+        <v>153.905134409847</v>
       </c>
       <c r="D304" t="n">
-        <v>141.33532761973</v>
+        <v>141.110053987557</v>
       </c>
       <c r="E304" t="n">
-        <v>167.631129871118</v>
+        <v>167.939673511357</v>
       </c>
       <c r="F304" t="n">
         <v>2020</v>
@@ -12338,13 +12338,13 @@
         <v>46</v>
       </c>
       <c r="C305" t="n">
-        <v>115.443953102791</v>
+        <v>115.562088388874</v>
       </c>
       <c r="D305" t="n">
-        <v>103.452804891298</v>
+        <v>104.050602961237</v>
       </c>
       <c r="E305" t="n">
-        <v>127.28596405</v>
+        <v>127.554612503337</v>
       </c>
       <c r="F305" t="n">
         <v>2020</v>
@@ -12376,13 +12376,13 @@
         <v>47</v>
       </c>
       <c r="C306" t="n">
-        <v>254.798117393295</v>
+        <v>254.405358477657</v>
       </c>
       <c r="D306" t="n">
-        <v>236.26759087528</v>
+        <v>234.546500501215</v>
       </c>
       <c r="E306" t="n">
-        <v>272.12336953804</v>
+        <v>274.237707577579</v>
       </c>
       <c r="F306" t="n">
         <v>2020</v>
@@ -12414,13 +12414,13 @@
         <v>48</v>
       </c>
       <c r="C307" t="n">
-        <v>519.851471983413</v>
+        <v>519.174543329331</v>
       </c>
       <c r="D307" t="n">
-        <v>495.53543569234</v>
+        <v>491.824858805758</v>
       </c>
       <c r="E307" t="n">
-        <v>546.245782963898</v>
+        <v>543.822665375522</v>
       </c>
       <c r="F307" t="n">
         <v>2020</v>
@@ -12452,13 +12452,13 @@
         <v>49</v>
       </c>
       <c r="C308" t="n">
-        <v>79.1619148717479</v>
+        <v>78.6889866402052</v>
       </c>
       <c r="D308" t="n">
-        <v>70.0191167720819</v>
+        <v>69.6951445850183</v>
       </c>
       <c r="E308" t="n">
-        <v>88.6961271615811</v>
+        <v>88.8604283361926</v>
       </c>
       <c r="F308" t="n">
         <v>2020</v>
@@ -12490,13 +12490,13 @@
         <v>50</v>
       </c>
       <c r="C309" t="n">
-        <v>205.028803181771</v>
+        <v>205.597911163154</v>
       </c>
       <c r="D309" t="n">
-        <v>189.647508459651</v>
+        <v>190.078762953857</v>
       </c>
       <c r="E309" t="n">
-        <v>220.683960388001</v>
+        <v>222.32707823046</v>
       </c>
       <c r="F309" t="n">
         <v>2020</v>
@@ -12528,13 +12528,13 @@
         <v>51</v>
       </c>
       <c r="C310" t="n">
-        <v>105.766601869455</v>
+        <v>106.817148400997</v>
       </c>
       <c r="D310" t="n">
-        <v>95.5792116000707</v>
+        <v>96.2115147992557</v>
       </c>
       <c r="E310" t="n">
-        <v>118.01710074259</v>
+        <v>117.827684137442</v>
       </c>
       <c r="F310" t="n">
         <v>2020</v>
@@ -12566,13 +12566,13 @@
         <v>52</v>
       </c>
       <c r="C311" t="n">
-        <v>29.5480558943268</v>
+        <v>29.3457944160332</v>
       </c>
       <c r="D311" t="n">
-        <v>24.3395860033608</v>
+        <v>24.5371931634629</v>
       </c>
       <c r="E311" t="n">
-        <v>35.316295037197</v>
+        <v>35.3269938295337</v>
       </c>
       <c r="F311" t="n">
         <v>2020</v>
@@ -12604,13 +12604,13 @@
         <v>53</v>
       </c>
       <c r="C312" t="n">
-        <v>25.1914387593053</v>
+        <v>25.2380161164029</v>
       </c>
       <c r="D312" t="n">
-        <v>20.5416180242063</v>
+        <v>20.3872036694056</v>
       </c>
       <c r="E312" t="n">
-        <v>31.0265854916831</v>
+        <v>30.9410651458651</v>
       </c>
       <c r="F312" t="n">
         <v>2020</v>
@@ -12642,13 +12642,13 @@
         <v>54</v>
       </c>
       <c r="C313" t="n">
-        <v>187.298004655476</v>
+        <v>188.445293102427</v>
       </c>
       <c r="D313" t="n">
-        <v>173.541135260393</v>
+        <v>171.889949102406</v>
       </c>
       <c r="E313" t="n">
-        <v>200.892372313181</v>
+        <v>204.511573170995</v>
       </c>
       <c r="F313" t="n">
         <v>2020</v>
@@ -12680,13 +12680,13 @@
         <v>55</v>
       </c>
       <c r="C314" t="n">
-        <v>347.190652909746</v>
+        <v>347.70466433415</v>
       </c>
       <c r="D314" t="n">
-        <v>327.729676541783</v>
+        <v>324.970632712925</v>
       </c>
       <c r="E314" t="n">
-        <v>368.850879376331</v>
+        <v>369.390632699335</v>
       </c>
       <c r="F314" t="n">
         <v>2020</v>
@@ -12718,13 +12718,13 @@
         <v>56</v>
       </c>
       <c r="C315" t="n">
-        <v>363.731689692356</v>
+        <v>365.405047128075</v>
       </c>
       <c r="D315" t="n">
-        <v>343.643838549802</v>
+        <v>342.756169035949</v>
       </c>
       <c r="E315" t="n">
-        <v>385.800445008137</v>
+        <v>388.427597815415</v>
       </c>
       <c r="F315" t="n">
         <v>2020</v>
@@ -12756,13 +12756,13 @@
         <v>57</v>
       </c>
       <c r="C316" t="n">
-        <v>448.433716551103</v>
+        <v>447.036447245841</v>
       </c>
       <c r="D316" t="n">
-        <v>424.363613945184</v>
+        <v>421.681770629559</v>
       </c>
       <c r="E316" t="n">
-        <v>473.674155303854</v>
+        <v>472.497780523466</v>
       </c>
       <c r="F316" t="n">
         <v>2020</v>
@@ -12794,13 +12794,13 @@
         <v>58</v>
       </c>
       <c r="C317" t="n">
-        <v>138.956373817483</v>
+        <v>137.917385224817</v>
       </c>
       <c r="D317" t="n">
-        <v>125.68810276985</v>
+        <v>125.08940725005</v>
       </c>
       <c r="E317" t="n">
-        <v>151.415327424745</v>
+        <v>152.028527714726</v>
       </c>
       <c r="F317" t="n">
         <v>2020</v>
@@ -12832,13 +12832,13 @@
         <v>59</v>
       </c>
       <c r="C318" t="n">
-        <v>491.269128616221</v>
+        <v>490.538746043365</v>
       </c>
       <c r="D318" t="n">
-        <v>464.62306057886</v>
+        <v>461.3619964676</v>
       </c>
       <c r="E318" t="n">
-        <v>518.049119177201</v>
+        <v>516.309089669925</v>
       </c>
       <c r="F318" t="n">
         <v>2020</v>
@@ -12870,13 +12870,13 @@
         <v>60</v>
       </c>
       <c r="C319" t="n">
-        <v>213.589083907879</v>
+        <v>212.758335876565</v>
       </c>
       <c r="D319" t="n">
-        <v>197.367786650745</v>
+        <v>197.329944490303</v>
       </c>
       <c r="E319" t="n">
-        <v>230.016653964295</v>
+        <v>229.885909441548</v>
       </c>
       <c r="F319" t="n">
         <v>2020</v>
@@ -12908,13 +12908,13 @@
         <v>61</v>
       </c>
       <c r="C320" t="n">
-        <v>121.951279976987</v>
+        <v>122.487154605999</v>
       </c>
       <c r="D320" t="n">
-        <v>111.348844476158</v>
+        <v>110.839501251162</v>
       </c>
       <c r="E320" t="n">
-        <v>133.879719408562</v>
+        <v>134.520051274388</v>
       </c>
       <c r="F320" t="n">
         <v>2020</v>
@@ -12946,13 +12946,13 @@
         <v>62</v>
       </c>
       <c r="C321" t="n">
-        <v>665.51957451574</v>
+        <v>667.299262403954</v>
       </c>
       <c r="D321" t="n">
-        <v>636.094757635697</v>
+        <v>636.600638615986</v>
       </c>
       <c r="E321" t="n">
-        <v>697.211937408182</v>
+        <v>701.56149604699</v>
       </c>
       <c r="F321" t="n">
         <v>2020</v>
@@ -12984,13 +12984,13 @@
         <v>63</v>
       </c>
       <c r="C322" t="n">
-        <v>46.6797139417331</v>
+        <v>46.0366324997553</v>
       </c>
       <c r="D322" t="n">
-        <v>40.3007119740096</v>
+        <v>39.6976626213762</v>
       </c>
       <c r="E322" t="n">
-        <v>54.2006435487593</v>
+        <v>53.0921383046978</v>
       </c>
       <c r="F322" t="n">
         <v>2020</v>
@@ -13022,13 +13022,13 @@
         <v>64</v>
       </c>
       <c r="C323" t="n">
-        <v>160.928355733903</v>
+        <v>161.740457306278</v>
       </c>
       <c r="D323" t="n">
-        <v>146.447299182545</v>
+        <v>148.00673137177</v>
       </c>
       <c r="E323" t="n">
-        <v>175.163075285371</v>
+        <v>177.336178944901</v>
       </c>
       <c r="F323" t="n">
         <v>2020</v>
@@ -13060,13 +13060,13 @@
         <v>65</v>
       </c>
       <c r="C324" t="n">
-        <v>165.780991200914</v>
+        <v>165.652672377285</v>
       </c>
       <c r="D324" t="n">
-        <v>152.048498700007</v>
+        <v>151.720351708739</v>
       </c>
       <c r="E324" t="n">
-        <v>180.733200635251</v>
+        <v>179.985634485748</v>
       </c>
       <c r="F324" t="n">
         <v>2020</v>
@@ -13098,13 +13098,13 @@
         <v>66</v>
       </c>
       <c r="C325" t="n">
-        <v>66.3171199990075</v>
+        <v>65.9635380225058</v>
       </c>
       <c r="D325" t="n">
-        <v>58.8003760288743</v>
+        <v>57.4485224259423</v>
       </c>
       <c r="E325" t="n">
-        <v>74.880089220968</v>
+        <v>75.4210824916375</v>
       </c>
       <c r="F325" t="n">
         <v>2020</v>
@@ -13136,13 +13136,13 @@
         <v>67</v>
       </c>
       <c r="C326" t="n">
-        <v>98.130840659958</v>
+        <v>98.5229397080981</v>
       </c>
       <c r="D326" t="n">
-        <v>88.4376331382658</v>
+        <v>88.6188393770564</v>
       </c>
       <c r="E326" t="n">
-        <v>108.507182135132</v>
+        <v>109.327245603021</v>
       </c>
       <c r="F326" t="n">
         <v>2020</v>
@@ -13174,13 +13174,13 @@
         <v>68</v>
       </c>
       <c r="C327" t="n">
-        <v>105.494895977255</v>
+        <v>104.9447819085</v>
       </c>
       <c r="D327" t="n">
-        <v>95.4636880860241</v>
+        <v>93.9164420873787</v>
       </c>
       <c r="E327" t="n">
-        <v>117.054231216316</v>
+        <v>116.907371767402</v>
       </c>
       <c r="F327" t="n">
         <v>2020</v>
@@ -13212,13 +13212,13 @@
         <v>69</v>
       </c>
       <c r="C328" t="n">
-        <v>499.698279715052</v>
+        <v>499.708977990429</v>
       </c>
       <c r="D328" t="n">
-        <v>473.594548061967</v>
+        <v>472.876440540354</v>
       </c>
       <c r="E328" t="n">
-        <v>525.649284904534</v>
+        <v>526.549433606283</v>
       </c>
       <c r="F328" t="n">
         <v>2020</v>
@@ -13250,13 +13250,13 @@
         <v>70</v>
       </c>
       <c r="C329" t="n">
-        <v>36.8741571524563</v>
+        <v>37.1453534580123</v>
       </c>
       <c r="D329" t="n">
-        <v>30.9976639882401</v>
+        <v>31.3013310957047</v>
       </c>
       <c r="E329" t="n">
-        <v>43.0714528889398</v>
+        <v>43.6682450079177</v>
       </c>
       <c r="F329" t="n">
         <v>2020</v>
@@ -13288,13 +13288,13 @@
         <v>71</v>
       </c>
       <c r="C330" t="n">
-        <v>76.2727729637684</v>
+        <v>75.7159311325952</v>
       </c>
       <c r="D330" t="n">
-        <v>67.7788918599281</v>
+        <v>66.4239170712328</v>
       </c>
       <c r="E330" t="n">
-        <v>85.5320791835372</v>
+        <v>85.7222373348616</v>
       </c>
       <c r="F330" t="n">
         <v>2020</v>
@@ -13326,13 +13326,13 @@
         <v>72</v>
       </c>
       <c r="C331" t="n">
-        <v>134.227138471776</v>
+        <v>134.71749619118</v>
       </c>
       <c r="D331" t="n">
-        <v>122.001052705222</v>
+        <v>121.321653334247</v>
       </c>
       <c r="E331" t="n">
-        <v>147.957267161923</v>
+        <v>147.325669737568</v>
       </c>
       <c r="F331" t="n">
         <v>2020</v>
@@ -13364,13 +13364,13 @@
         <v>73</v>
       </c>
       <c r="C332" t="n">
-        <v>387.947327038845</v>
+        <v>388.35740555474</v>
       </c>
       <c r="D332" t="n">
-        <v>365.897466610381</v>
+        <v>365.333036257606</v>
       </c>
       <c r="E332" t="n">
-        <v>411.58346449772</v>
+        <v>411.424573035633</v>
       </c>
       <c r="F332" t="n">
         <v>2020</v>
@@ -13402,13 +13402,13 @@
         <v>74</v>
       </c>
       <c r="C333" t="n">
-        <v>55.2033017016697</v>
+        <v>54.7390406090135</v>
       </c>
       <c r="D333" t="n">
-        <v>48.2836461504199</v>
+        <v>47.9515040351137</v>
       </c>
       <c r="E333" t="n">
-        <v>62.8981459768916</v>
+        <v>62.4448231372636</v>
       </c>
       <c r="F333" t="n">
         <v>2020</v>
@@ -13440,13 +13440,13 @@
         <v>75</v>
       </c>
       <c r="C334" t="n">
-        <v>47.2785158976594</v>
+        <v>46.9281197251631</v>
       </c>
       <c r="D334" t="n">
-        <v>39.5296609215447</v>
+        <v>40.0817730011439</v>
       </c>
       <c r="E334" t="n">
-        <v>54.4166548275028</v>
+        <v>55.0795391499212</v>
       </c>
       <c r="F334" t="n">
         <v>2020</v>
@@ -13478,13 +13478,13 @@
         <v>76</v>
       </c>
       <c r="C335" t="n">
-        <v>368.810958607921</v>
+        <v>369.879630911476</v>
       </c>
       <c r="D335" t="n">
-        <v>346.190216596296</v>
+        <v>348.517686132296</v>
       </c>
       <c r="E335" t="n">
-        <v>390.688983936568</v>
+        <v>391.662501235317</v>
       </c>
       <c r="F335" t="n">
         <v>2020</v>
@@ -13516,13 +13516,13 @@
         <v>77</v>
       </c>
       <c r="C336" t="n">
-        <v>130.118568260755</v>
+        <v>130.56123469878</v>
       </c>
       <c r="D336" t="n">
-        <v>118.730150621715</v>
+        <v>118.513793793358</v>
       </c>
       <c r="E336" t="n">
-        <v>142.567204149481</v>
+        <v>143.52756636524</v>
       </c>
       <c r="F336" t="n">
         <v>2020</v>
@@ -13554,13 +13554,13 @@
         <v>78</v>
       </c>
       <c r="C337" t="n">
-        <v>247.536082514051</v>
+        <v>247.039030693191</v>
       </c>
       <c r="D337" t="n">
-        <v>230.110851903836</v>
+        <v>228.780211050345</v>
       </c>
       <c r="E337" t="n">
-        <v>265.488104088665</v>
+        <v>265.165377595092</v>
       </c>
       <c r="F337" t="n">
         <v>2020</v>
@@ -13592,13 +13592,13 @@
         <v>79</v>
       </c>
       <c r="C338" t="n">
-        <v>180.326741690438</v>
+        <v>180.220210796706</v>
       </c>
       <c r="D338" t="n">
-        <v>165.255982350596</v>
+        <v>165.74570617766</v>
       </c>
       <c r="E338" t="n">
-        <v>194.740766478774</v>
+        <v>195.480325939817</v>
       </c>
       <c r="F338" t="n">
         <v>2020</v>
@@ -13630,13 +13630,13 @@
         <v>80</v>
       </c>
       <c r="C339" t="n">
-        <v>183.757985883476</v>
+        <v>184.024406533226</v>
       </c>
       <c r="D339" t="n">
-        <v>169.025855401823</v>
+        <v>168.734916486729</v>
       </c>
       <c r="E339" t="n">
-        <v>199.663397850752</v>
+        <v>199.185300630465</v>
       </c>
       <c r="F339" t="n">
         <v>2020</v>
@@ -13668,13 +13668,13 @@
         <v>81</v>
       </c>
       <c r="C340" t="n">
-        <v>206.260607871563</v>
+        <v>205.399217726946</v>
       </c>
       <c r="D340" t="n">
-        <v>190.200054123392</v>
+        <v>190.477009256474</v>
       </c>
       <c r="E340" t="n">
-        <v>221.739056854219</v>
+        <v>221.587380884255</v>
       </c>
       <c r="F340" t="n">
         <v>2020</v>
@@ -13706,13 +13706,13 @@
         <v>82</v>
       </c>
       <c r="C341" t="n">
-        <v>847.030947508624</v>
+        <v>845.402320291769</v>
       </c>
       <c r="D341" t="n">
-        <v>812.741723474697</v>
+        <v>809.858734608332</v>
       </c>
       <c r="E341" t="n">
-        <v>882.376718564087</v>
+        <v>882.878719416008</v>
       </c>
       <c r="F341" t="n">
         <v>2020</v>
@@ -13744,13 +13744,13 @@
         <v>83</v>
       </c>
       <c r="C342" t="n">
-        <v>105.138578542807</v>
+        <v>104.598108378405</v>
       </c>
       <c r="D342" t="n">
-        <v>95.4279792650058</v>
+        <v>95.0889960832704</v>
       </c>
       <c r="E342" t="n">
-        <v>116.219863552817</v>
+        <v>115.756282534752</v>
       </c>
       <c r="F342" t="n">
         <v>2020</v>
@@ -13782,13 +13782,13 @@
         <v>84</v>
       </c>
       <c r="C343" t="n">
-        <v>170.116142704069</v>
+        <v>171.197364861096</v>
       </c>
       <c r="D343" t="n">
-        <v>156.778875031088</v>
+        <v>156.924756606553</v>
       </c>
       <c r="E343" t="n">
-        <v>185.629026181366</v>
+        <v>186.307140457701</v>
       </c>
       <c r="F343" t="n">
         <v>2020</v>
@@ -13820,13 +13820,13 @@
         <v>85</v>
       </c>
       <c r="C344" t="n">
-        <v>153.595524736738</v>
+        <v>153.747897001895</v>
       </c>
       <c r="D344" t="n">
-        <v>139.649733025859</v>
+        <v>140.783975471571</v>
       </c>
       <c r="E344" t="n">
-        <v>167.541515860762</v>
+        <v>167.976871713248</v>
       </c>
       <c r="F344" t="n">
         <v>2020</v>
@@ -13858,13 +13858,13 @@
         <v>86</v>
       </c>
       <c r="C345" t="n">
-        <v>562.309478259984</v>
+        <v>558.910176562199</v>
       </c>
       <c r="D345" t="n">
-        <v>535.749785899634</v>
+        <v>528.926360233</v>
       </c>
       <c r="E345" t="n">
-        <v>590.266525948536</v>
+        <v>590.123941993689</v>
       </c>
       <c r="F345" t="n">
         <v>2020</v>
@@ -13896,13 +13896,13 @@
         <v>87</v>
       </c>
       <c r="C346" t="n">
-        <v>46.5768133447316</v>
+        <v>45.5732398817629</v>
       </c>
       <c r="D346" t="n">
-        <v>40.2699334676377</v>
+        <v>39.2562923983763</v>
       </c>
       <c r="E346" t="n">
-        <v>53.1824248708499</v>
+        <v>52.1821366523835</v>
       </c>
       <c r="F346" t="n">
         <v>2020</v>
@@ -13934,13 +13934,13 @@
         <v>88</v>
       </c>
       <c r="C347" t="n">
-        <v>148.718670259776</v>
+        <v>148.495114094533</v>
       </c>
       <c r="D347" t="n">
-        <v>135.431612917023</v>
+        <v>135.676190624626</v>
       </c>
       <c r="E347" t="n">
-        <v>160.827772340381</v>
+        <v>163.340249578282</v>
       </c>
       <c r="F347" t="n">
         <v>2020</v>
@@ -13972,13 +13972,13 @@
         <v>89</v>
       </c>
       <c r="C348" t="n">
-        <v>181.711802864145</v>
+        <v>181.616318944422</v>
       </c>
       <c r="D348" t="n">
-        <v>167.673386670346</v>
+        <v>166.994575118753</v>
       </c>
       <c r="E348" t="n">
-        <v>196.498622954987</v>
+        <v>196.676449536681</v>
       </c>
       <c r="F348" t="n">
         <v>2020</v>
@@ -14010,13 +14010,13 @@
         <v>90</v>
       </c>
       <c r="C349" t="n">
-        <v>195.591056140108</v>
+        <v>195.805095832601</v>
       </c>
       <c r="D349" t="n">
-        <v>180.070619361715</v>
+        <v>181.561386290358</v>
       </c>
       <c r="E349" t="n">
-        <v>210.564191933627</v>
+        <v>212.883556253981</v>
       </c>
       <c r="F349" t="n">
         <v>2020</v>
@@ -14048,13 +14048,13 @@
         <v>91</v>
       </c>
       <c r="C350" t="n">
-        <v>688.481506614256</v>
+        <v>689.159344626609</v>
       </c>
       <c r="D350" t="n">
-        <v>658.514954343024</v>
+        <v>659.81578308431</v>
       </c>
       <c r="E350" t="n">
-        <v>719.421488112302</v>
+        <v>721.374524177448</v>
       </c>
       <c r="F350" t="n">
         <v>2020</v>
@@ -14086,13 +14086,13 @@
         <v>92</v>
       </c>
       <c r="C351" t="n">
-        <v>247.390489376077</v>
+        <v>247.242614408113</v>
       </c>
       <c r="D351" t="n">
-        <v>230.172560259807</v>
+        <v>229.523977256283</v>
       </c>
       <c r="E351" t="n">
-        <v>265.926955969742</v>
+        <v>267.424518807285</v>
       </c>
       <c r="F351" t="n">
         <v>2020</v>
@@ -14124,13 +14124,13 @@
         <v>93</v>
       </c>
       <c r="C352" t="n">
-        <v>65.5905489686773</v>
+        <v>65.3386680016119</v>
       </c>
       <c r="D352" t="n">
-        <v>58.2138473528369</v>
+        <v>57.3669869175169</v>
       </c>
       <c r="E352" t="n">
-        <v>73.8338553268994</v>
+        <v>73.885251524596</v>
       </c>
       <c r="F352" t="n">
         <v>2020</v>
@@ -14162,13 +14162,13 @@
         <v>94</v>
       </c>
       <c r="C353" t="n">
-        <v>8.91443683048772</v>
+        <v>8.6088273970494</v>
       </c>
       <c r="D353" t="n">
-        <v>6.47682425195827</v>
+        <v>6.57328554202804</v>
       </c>
       <c r="E353" t="n">
-        <v>11.594679411937</v>
+        <v>11.1352839997696</v>
       </c>
       <c r="F353" t="n">
         <v>2020</v>
@@ -14200,13 +14200,13 @@
         <v>95</v>
       </c>
       <c r="C354" t="n">
-        <v>102.537239524094</v>
+        <v>102.493203556014</v>
       </c>
       <c r="D354" t="n">
-        <v>91.9939888927003</v>
+        <v>92.4263045871503</v>
       </c>
       <c r="E354" t="n">
-        <v>113.242433033885</v>
+        <v>113.304883726803</v>
       </c>
       <c r="F354" t="n">
         <v>2020</v>
@@ -14238,13 +14238,13 @@
         <v>96</v>
       </c>
       <c r="C355" t="n">
-        <v>230.465440883147</v>
+        <v>230.19409196743</v>
       </c>
       <c r="D355" t="n">
-        <v>213.414794775056</v>
+        <v>213.259992488608</v>
       </c>
       <c r="E355" t="n">
-        <v>247.951538762833</v>
+        <v>247.566377496559</v>
       </c>
       <c r="F355" t="n">
         <v>2020</v>
@@ -14276,13 +14276,13 @@
         <v>97</v>
       </c>
       <c r="C356" t="n">
-        <v>248.999052061274</v>
+        <v>249.996997340377</v>
       </c>
       <c r="D356" t="n">
-        <v>230.898229829342</v>
+        <v>231.49465255804</v>
       </c>
       <c r="E356" t="n">
-        <v>267.504561013926</v>
+        <v>268.177050189796</v>
       </c>
       <c r="F356" t="n">
         <v>2020</v>
@@ -14314,13 +14314,13 @@
         <v>98</v>
       </c>
       <c r="C357" t="n">
-        <v>162.667525555123</v>
+        <v>162.499229708685</v>
       </c>
       <c r="D357" t="n">
-        <v>148.115912699549</v>
+        <v>148.515286395885</v>
       </c>
       <c r="E357" t="n">
-        <v>178.600280407936</v>
+        <v>176.399058414799</v>
       </c>
       <c r="F357" t="n">
         <v>2020</v>
@@ -14352,13 +14352,13 @@
         <v>99</v>
       </c>
       <c r="C358" t="n">
-        <v>164.024069104774</v>
+        <v>162.958525794055</v>
       </c>
       <c r="D358" t="n">
-        <v>149.539587985678</v>
+        <v>149.558326158794</v>
       </c>
       <c r="E358" t="n">
-        <v>177.644230149499</v>
+        <v>177.254324554809</v>
       </c>
       <c r="F358" t="n">
         <v>2020</v>
@@ -14390,13 +14390,13 @@
         <v>100</v>
       </c>
       <c r="C359" t="n">
-        <v>61.5823513859426</v>
+        <v>61.5995374061769</v>
       </c>
       <c r="D359" t="n">
-        <v>53.8762278347569</v>
+        <v>53.0800512239641</v>
       </c>
       <c r="E359" t="n">
-        <v>70.0565358396756</v>
+        <v>69.1851782023541</v>
       </c>
       <c r="F359" t="n">
         <v>2020</v>
@@ -14428,13 +14428,13 @@
         <v>101</v>
       </c>
       <c r="C360" t="n">
-        <v>743.949534154822</v>
+        <v>742.967044023879</v>
       </c>
       <c r="D360" t="n">
-        <v>712.053863986867</v>
+        <v>709.667082493663</v>
       </c>
       <c r="E360" t="n">
-        <v>776.706455539255</v>
+        <v>780.440785617619</v>
       </c>
       <c r="F360" t="n">
         <v>2020</v>
@@ -14466,13 +14466,13 @@
         <v>102</v>
       </c>
       <c r="C361" t="n">
-        <v>410.799406242428</v>
+        <v>410.535725723661</v>
       </c>
       <c r="D361" t="n">
-        <v>387.657514366193</v>
+        <v>387.111482454882</v>
       </c>
       <c r="E361" t="n">
-        <v>434.079895325552</v>
+        <v>435.681356038194</v>
       </c>
       <c r="F361" t="n">
         <v>2020</v>
@@ -14504,13 +14504,13 @@
         <v>103</v>
       </c>
       <c r="C362" t="n">
-        <v>120.561041523379</v>
+        <v>119.580023153372</v>
       </c>
       <c r="D362" t="n">
-        <v>108.765296479125</v>
+        <v>108.427858947478</v>
       </c>
       <c r="E362" t="n">
-        <v>132.315029349954</v>
+        <v>132.309492491306</v>
       </c>
       <c r="F362" t="n">
         <v>2020</v>
@@ -14542,13 +14542,13 @@
         <v>104</v>
       </c>
       <c r="C363" t="n">
-        <v>209.863551467481</v>
+        <v>209.876771183655</v>
       </c>
       <c r="D363" t="n">
-        <v>193.165565586167</v>
+        <v>194.252216965622</v>
       </c>
       <c r="E363" t="n">
-        <v>226.030072113406</v>
+        <v>227.108627533229</v>
       </c>
       <c r="F363" t="n">
         <v>2020</v>
@@ -14580,13 +14580,13 @@
         <v>105</v>
       </c>
       <c r="C364" t="n">
-        <v>1970.72783225785</v>
+        <v>1969.90846985546</v>
       </c>
       <c r="D364" t="n">
-        <v>1912.49767112559</v>
+        <v>1904.35778528045</v>
       </c>
       <c r="E364" t="n">
-        <v>2027.69074631642</v>
+        <v>2034.39865134798</v>
       </c>
       <c r="F364" t="n">
         <v>2020</v>
@@ -14618,13 +14618,13 @@
         <v>106</v>
       </c>
       <c r="C365" t="n">
-        <v>154.703086594832</v>
+        <v>154.868686313045</v>
       </c>
       <c r="D365" t="n">
-        <v>140.282194839451</v>
+        <v>140.863363295619</v>
       </c>
       <c r="E365" t="n">
-        <v>168.952705150113</v>
+        <v>170.86599233147</v>
       </c>
       <c r="F365" t="n">
         <v>2020</v>
@@ -14656,13 +14656,13 @@
         <v>107</v>
       </c>
       <c r="C366" t="n">
-        <v>186.665369968346</v>
+        <v>187.0590236702</v>
       </c>
       <c r="D366" t="n">
-        <v>172.597457464427</v>
+        <v>172.415131334269</v>
       </c>
       <c r="E366" t="n">
-        <v>202.426884203278</v>
+        <v>203.075392493762</v>
       </c>
       <c r="F366" t="n">
         <v>2020</v>
@@ -14694,13 +14694,13 @@
         <v>108</v>
       </c>
       <c r="C367" t="n">
-        <v>73.9787721899827</v>
+        <v>74.5244051787063</v>
       </c>
       <c r="D367" t="n">
-        <v>65.4275188898123</v>
+        <v>65.9828572492108</v>
       </c>
       <c r="E367" t="n">
-        <v>82.9581168697004</v>
+        <v>83.935036091659</v>
       </c>
       <c r="F367" t="n">
         <v>2020</v>
@@ -14732,13 +14732,13 @@
         <v>109</v>
       </c>
       <c r="C368" t="n">
-        <v>258.466979064555</v>
+        <v>259.336653747858</v>
       </c>
       <c r="D368" t="n">
-        <v>241.253402047021</v>
+        <v>241.524328265799</v>
       </c>
       <c r="E368" t="n">
-        <v>276.551458946071</v>
+        <v>279.001040444068</v>
       </c>
       <c r="F368" t="n">
         <v>2020</v>
@@ -14770,13 +14770,13 @@
         <v>110</v>
       </c>
       <c r="C369" t="n">
-        <v>332.601053380912</v>
+        <v>332.854660872547</v>
       </c>
       <c r="D369" t="n">
-        <v>311.85563363451</v>
+        <v>310.942432144699</v>
       </c>
       <c r="E369" t="n">
-        <v>354.539482102676</v>
+        <v>354.894938907718</v>
       </c>
       <c r="F369" t="n">
         <v>2020</v>
@@ -14808,13 +14808,13 @@
         <v>111</v>
       </c>
       <c r="C370" t="n">
-        <v>68.5673500818613</v>
+        <v>67.9552351276148</v>
       </c>
       <c r="D370" t="n">
-        <v>60.4467365009605</v>
+        <v>59.2216219226721</v>
       </c>
       <c r="E370" t="n">
-        <v>76.6396846775772</v>
+        <v>76.8965780183149</v>
       </c>
       <c r="F370" t="n">
         <v>2020</v>
@@ -14846,13 +14846,13 @@
         <v>112</v>
       </c>
       <c r="C371" t="n">
-        <v>180.46513539039</v>
+        <v>180.760499151761</v>
       </c>
       <c r="D371" t="n">
-        <v>166.328477180651</v>
+        <v>165.968875672444</v>
       </c>
       <c r="E371" t="n">
-        <v>195.631258172629</v>
+        <v>197.408353404588</v>
       </c>
       <c r="F371" t="n">
         <v>2020</v>
@@ -14884,13 +14884,13 @@
         <v>113</v>
       </c>
       <c r="C372" t="n">
-        <v>195.463540924789</v>
+        <v>195.449352458445</v>
       </c>
       <c r="D372" t="n">
-        <v>179.963013601924</v>
+        <v>179.32558345102</v>
       </c>
       <c r="E372" t="n">
-        <v>211.746681426088</v>
+        <v>212.702649604097</v>
       </c>
       <c r="F372" t="n">
         <v>2020</v>
@@ -14922,13 +14922,13 @@
         <v>114</v>
       </c>
       <c r="C373" t="n">
-        <v>411.080442287785</v>
+        <v>412.912482614026</v>
       </c>
       <c r="D373" t="n">
-        <v>389.790066316277</v>
+        <v>388.026583744425</v>
       </c>
       <c r="E373" t="n">
-        <v>437.176425868079</v>
+        <v>437.359808515432</v>
       </c>
       <c r="F373" t="n">
         <v>2020</v>
@@ -14960,13 +14960,13 @@
         <v>115</v>
       </c>
       <c r="C374" t="n">
-        <v>187.012109140827</v>
+        <v>186.614557572782</v>
       </c>
       <c r="D374" t="n">
-        <v>172.233899182651</v>
+        <v>170.690206306885</v>
       </c>
       <c r="E374" t="n">
-        <v>203.280934462324</v>
+        <v>201.644640703247</v>
       </c>
       <c r="F374" t="n">
         <v>2020</v>
@@ -14998,13 +14998,13 @@
         <v>116</v>
       </c>
       <c r="C375" t="n">
-        <v>55.3583001703181</v>
+        <v>55.1806868779708</v>
       </c>
       <c r="D375" t="n">
-        <v>47.5916191745404</v>
+        <v>48.3508163844298</v>
       </c>
       <c r="E375" t="n">
-        <v>63.2436061763679</v>
+        <v>63.2851096645358</v>
       </c>
       <c r="F375" t="n">
         <v>2020</v>
@@ -15036,13 +15036,13 @@
         <v>117</v>
       </c>
       <c r="C376" t="n">
-        <v>72.1182443233801</v>
+        <v>72.721782077041</v>
       </c>
       <c r="D376" t="n">
-        <v>63.6964877404572</v>
+        <v>63.9734029715678</v>
       </c>
       <c r="E376" t="n">
-        <v>81.2180564490434</v>
+        <v>82.7065849894264</v>
       </c>
       <c r="F376" t="n">
         <v>2020</v>
@@ -15074,13 +15074,13 @@
         <v>118</v>
       </c>
       <c r="C377" t="n">
-        <v>262.847666645206</v>
+        <v>262.342062834923</v>
       </c>
       <c r="D377" t="n">
-        <v>244.947406492967</v>
+        <v>245.139930509705</v>
       </c>
       <c r="E377" t="n">
-        <v>282.866544980534</v>
+        <v>283.056853662032</v>
       </c>
       <c r="F377" t="n">
         <v>2020</v>
@@ -15112,13 +15112,13 @@
         <v>119</v>
       </c>
       <c r="C378" t="n">
-        <v>52.8741186401324</v>
+        <v>53.0897857067504</v>
       </c>
       <c r="D378" t="n">
-        <v>46.2382586592402</v>
+        <v>46.0947531260987</v>
       </c>
       <c r="E378" t="n">
-        <v>60.3965608565367</v>
+        <v>60.5987025493718</v>
       </c>
       <c r="F378" t="n">
         <v>2020</v>
@@ -15150,13 +15150,13 @@
         <v>120</v>
       </c>
       <c r="C379" t="n">
-        <v>153.155486324123</v>
+        <v>153.045553064656</v>
       </c>
       <c r="D379" t="n">
-        <v>139.342597627359</v>
+        <v>139.602766316993</v>
       </c>
       <c r="E379" t="n">
-        <v>166.823469732988</v>
+        <v>166.822598479618</v>
       </c>
       <c r="F379" t="n">
         <v>2020</v>
@@ -15188,13 +15188,13 @@
         <v>122</v>
       </c>
       <c r="C380" t="n">
-        <v>366.412857755629</v>
+        <v>366.677382092629</v>
       </c>
       <c r="D380" t="n">
-        <v>346.204617993584</v>
+        <v>343.512771845114</v>
       </c>
       <c r="E380" t="n">
-        <v>388.505938637536</v>
+        <v>391.729540259264</v>
       </c>
       <c r="F380" t="n">
         <v>2020</v>
@@ -15226,13 +15226,13 @@
         <v>123</v>
       </c>
       <c r="C381" t="n">
-        <v>823.60303894958</v>
+        <v>825.231378562123</v>
       </c>
       <c r="D381" t="n">
-        <v>787.361392937913</v>
+        <v>789.716038660519</v>
       </c>
       <c r="E381" t="n">
-        <v>857.706909278034</v>
+        <v>863.660961531569</v>
       </c>
       <c r="F381" t="n">
         <v>2020</v>
@@ -15264,13 +15264,13 @@
         <v>124</v>
       </c>
       <c r="C382" t="n">
-        <v>856.379941621168</v>
+        <v>857.664668309315</v>
       </c>
       <c r="D382" t="n">
-        <v>818.813670276784</v>
+        <v>822.249474157944</v>
       </c>
       <c r="E382" t="n">
-        <v>889.894933153417</v>
+        <v>896.053163068697</v>
       </c>
       <c r="F382" t="n">
         <v>2020</v>
@@ -15302,13 +15302,13 @@
         <v>125</v>
       </c>
       <c r="C383" t="n">
-        <v>2227.565608637</v>
+        <v>2226.65702959076</v>
       </c>
       <c r="D383" t="n">
-        <v>2165.21437088108</v>
+        <v>2152.33405939604</v>
       </c>
       <c r="E383" t="n">
-        <v>2291.57508080367</v>
+        <v>2306.33443948974</v>
       </c>
       <c r="F383" t="n">
         <v>2020</v>
@@ -15340,13 +15340,13 @@
         <v>126</v>
       </c>
       <c r="C384" t="n">
-        <v>397.434170079529</v>
+        <v>395.93439009451</v>
       </c>
       <c r="D384" t="n">
-        <v>374.89249267168</v>
+        <v>372.656978804333</v>
       </c>
       <c r="E384" t="n">
-        <v>421.284289853675</v>
+        <v>419.313827187538</v>
       </c>
       <c r="F384" t="n">
         <v>2020</v>
@@ -15378,13 +15378,13 @@
         <v>127</v>
       </c>
       <c r="C385" t="n">
-        <v>282.78315393786</v>
+        <v>280.646828315901</v>
       </c>
       <c r="D385" t="n">
-        <v>263.958443766439</v>
+        <v>260.468527357108</v>
       </c>
       <c r="E385" t="n">
-        <v>302.501608377506</v>
+        <v>299.802150592049</v>
       </c>
       <c r="F385" t="n">
         <v>2020</v>
@@ -15416,13 +15416,13 @@
         <v>128</v>
       </c>
       <c r="C386" t="n">
-        <v>335.110121156717</v>
+        <v>334.387140211918</v>
       </c>
       <c r="D386" t="n">
-        <v>313.207153524213</v>
+        <v>313.742319192768</v>
       </c>
       <c r="E386" t="n">
-        <v>355.51044353683</v>
+        <v>355.791358120844</v>
       </c>
       <c r="F386" t="n">
         <v>2020</v>
@@ -15454,13 +15454,13 @@
         <v>129</v>
       </c>
       <c r="C387" t="n">
-        <v>148.337536985401</v>
+        <v>147.68040025059</v>
       </c>
       <c r="D387" t="n">
-        <v>136.048191940539</v>
+        <v>135.11846537427</v>
       </c>
       <c r="E387" t="n">
-        <v>162.581508111136</v>
+        <v>160.874458437792</v>
       </c>
       <c r="F387" t="n">
         <v>2020</v>
@@ -15492,13 +15492,13 @@
         <v>130</v>
       </c>
       <c r="C388" t="n">
-        <v>148.856134559128</v>
+        <v>149.287576813117</v>
       </c>
       <c r="D388" t="n">
-        <v>136.303839092342</v>
+        <v>135.193933309592</v>
       </c>
       <c r="E388" t="n">
-        <v>161.181855628123</v>
+        <v>163.3699548441</v>
       </c>
       <c r="F388" t="n">
         <v>2020</v>
